--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -346,10 +346,10 @@
     <t xml:space="preserve">Score</t>
   </si>
   <si>
-    <t xml:space="preserve">0 hard/0 soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10000 hard/0 soft</t>
+    <t xml:space="preserve">0hard/0soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10000hard/0soft</t>
   </si>
 </sst>
 </file>
@@ -956,7 +956,7 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -4544,7 +4544,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4694,7 +4694,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4857,12 +4857,12 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5028,7 +5028,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,11 +13,26 @@
     <sheet name="Rooms" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Speakers" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Talks" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="talkTypeOfTimeSlotSetup" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="testTimeSlotWithMatchingTalkType" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="talkHasUnavailableRoomSetup" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="talkWithAvailableRoom" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="talkWithRoomWithUnavailableTimeslot" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="talkTypeOfTimeslot_setup" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="talkTypeOfTimeslot_timeslotWithMatchingTalkType" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="talkTypeOfTimeslot_timeslotWithNonMatchingTalkType" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="talkHasUnavailableRoom_setup" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="talkHasUnavailableRoom_talkWithAvailableRoom" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="talkHasUnavailableRoom_talkWithUnavailableRoom" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="talkHasUnavailableRoom_talkWithAvailableRoom_2" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="talkHasUnavailableRoom_talkWithUnavailableRoom_2" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="roomConflict_setup" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="roomConflict_talksInSameRoomWithoutOverlappingTimeslots" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="roomConflict_talksInSameRoomWithOverlappingTimeslots" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="roomConflict_talksInDifferentRoomsWithOverlappingTimeslots" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="talkWithUnavailableSpeaker_setup" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="talkWithUnavailableSpeaker_talkWithoutUnavailableSpeaker" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="talkWithUnavailableSpeaker_talkWithoutUnavailableSpeaker_2" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="talkWithUnavailableSpeaker_talkWithoutUnavailableTwoSpeakers" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="talkWithUnavailableSpeaker_talkWithoutUnavailableTwoSpeakers_2" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="talkWithUnavailableSpeaker_talkWithOneOrMoreUnavailableSpeaker" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="talkWithUnavailableSpeaker_talkWithOneOrMoreUnavailableSpeaker_2" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="talkWithUnavailableSpeaker_talkWithOneOrMoreUnavailableSpeaker_3" sheetId="25" state="visible" r:id="rId26"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="133">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -214,55 +229,79 @@
     <t xml:space="preserve">Tags</t>
   </si>
   <si>
-    <t xml:space="preserve">Mon 2018-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talkType1</t>
+    <t xml:space="preserve">Mon 2018-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkTypeOfTimeslot_talkType1</t>
   </si>
   <si>
     <t xml:space="preserve">11:00</t>
   </si>
   <si>
-    <t xml:space="preserve">11:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talkType2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00</t>
+    <t xml:space="preserve">Tue 2018-01-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkHasUnavailableRoom_talkType1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wed 2018-01-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roomConflict_talkType1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu 2018-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkWithUnavailableSpeaker_talkType1</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">10:15-12:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:15-11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:30-12:15</t>
+    <t xml:space="preserve">09:00-10:00</t>
   </si>
   <si>
     <t xml:space="preserve">10:00-11:00</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-11:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Large, Recorded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R 2</t>
+    <t xml:space="preserve">09:30-10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkTypeOfTimeslot_room1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkHasUnavailableRoom_room1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkHasUnavailableRoom_room2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkHasUnavailableRoom_room3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkHasUnavailableRoom_room4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roomConflict_room1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roomConflict_room2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkWithUnavailableSpeaker_room1</t>
   </si>
   <si>
     <t xml:space="preserve">Required timeslot tags</t>
@@ -289,6 +328,18 @@
     <t xml:space="preserve">Undesired room tags</t>
   </si>
   <si>
+    <t xml:space="preserve">talkWithUnavailableSpeaker_speaker1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkWithUnavailableSpeaker_speaker2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkWithUnavailableSpeaker_speaker3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkWithUnavailableSpeaker_speaker4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code</t>
   </si>
   <si>
@@ -328,10 +379,94 @@
     <t xml:space="preserve">Room</t>
   </si>
   <si>
-    <t xml:space="preserve">talk1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talk2</t>
+    <t xml:space="preserve">talkTypeOfTimeslot_talk1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkTypeOfTimeslot_talk2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkHasUnavailableRoom_talk1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkHasUnavailableRoom_talk2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roomConflict_talk1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roomConflict_talk2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkWithUnavailableSpeaker_talk1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkWithUnavailableSpeaker_talk2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">talkWithUnavailableSpeaker_speaker1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">talkWithUnavailableSpeaker_speaker2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">talkWithUnavailableSpeaker_talk3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talkWithUnavailableSpeaker_talk4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">talkWithUnavailableSpeaker_speaker2, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">talkWithUnavailableSpeaker_speaker3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">talkWithUnavailableSpeaker_talk5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">talkWithUnavailableSpeaker_speaker3, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">talkWithUnavailableSpeaker_speaker4</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Constraint package</t>
@@ -350,6 +485,12 @@
   </si>
   <si>
     <t xml:space="preserve">-10000hard/0soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10hard/0soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1hard/0soft</t>
   </si>
 </sst>
 </file>
@@ -360,7 +501,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -388,6 +529,11 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -455,7 +601,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -465,6 +611,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -480,15 +630,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -500,7 +654,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -954,14 +1112,14 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -974,16 +1132,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>102</v>
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -992,16 +1150,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1010,16 +1168,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>106</v>
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1028,13 +1186,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1043,58 +1201,1705 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>61</v>
+      <c r="B5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="D6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1106,6 +2911,182 @@
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1121,21 +3102,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
@@ -1157,7 +3138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -1172,12 +3153,12 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>65</v>
@@ -1188,70 +3169,1171 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>64</v>
+      <c r="D6" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1267,47 +4349,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="4" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="4" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="15" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>59</v>
@@ -1316,85 +4404,248 @@
         <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:H1"/>
+  <mergeCells count="4">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1411,14 +4662,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O2" activeCellId="0" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1450,1153 +4701,262 @@
         <v>61</v>
       </c>
       <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="N1" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-    </row>
+    <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J1:O1"/>
+  <mergeCells count="4">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2620,7 +4980,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2652,64 +5012,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>57</v>
@@ -2718,12 +5078,12 @@
         <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -2746,19 +5106,19 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="6"/>
+      <c r="S2" s="9"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2777,7 +5137,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="6"/>
+      <c r="S3" s="9"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -2802,21 +5162,27 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="6"/>
+      <c r="S4" s="9"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2827,21 +5193,27 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="6"/>
+      <c r="S5" s="9"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2852,7 +5224,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="6"/>
+      <c r="S6" s="9"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -2877,21 +5249,27 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="6"/>
+      <c r="S7" s="9"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2902,21 +5280,27 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="6"/>
+      <c r="S8" s="9"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2927,7 +5311,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="6"/>
+      <c r="S9" s="9"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -2952,21 +5336,29 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="6"/>
+      <c r="S10" s="9"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
+    <row r="11" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2977,21 +5369,29 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="6"/>
+      <c r="S11" s="9"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
+    <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -3002,21 +5402,29 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="6"/>
+      <c r="S12" s="9"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
+    <row r="13" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -3027,21 +5435,29 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="6"/>
+      <c r="S13" s="9"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
+    <row r="14" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -3052,21 +5468,29 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="6"/>
+      <c r="S14" s="9"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
+    <row r="15" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -3077,7 +5501,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="6"/>
+      <c r="S15" s="9"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -3102,7 +5526,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="6"/>
+      <c r="S16" s="9"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -3127,7 +5551,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="6"/>
+      <c r="S17" s="9"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -3152,7 +5576,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="6"/>
+      <c r="S18" s="9"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -3177,7 +5601,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="6"/>
+      <c r="S19" s="9"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -3202,7 +5626,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="6"/>
+      <c r="S20" s="9"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -3227,7 +5651,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="6"/>
+      <c r="S21" s="9"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -3252,7 +5676,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="6"/>
+      <c r="S22" s="9"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -3277,7 +5701,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="6"/>
+      <c r="S23" s="9"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -3302,7 +5726,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="6"/>
+      <c r="S24" s="9"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -3327,7 +5751,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="6"/>
+      <c r="S25" s="9"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -3352,7 +5776,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="6"/>
+      <c r="S26" s="9"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
@@ -3377,7 +5801,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="6"/>
+      <c r="S27" s="9"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -3402,7 +5826,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="6"/>
+      <c r="S28" s="9"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -3427,7 +5851,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="6"/>
+      <c r="S29" s="9"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -3452,7 +5876,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="6"/>
+      <c r="S30" s="9"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -3477,7 +5901,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="6"/>
+      <c r="S31" s="9"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -3502,7 +5926,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="6"/>
+      <c r="S32" s="9"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -3527,7 +5951,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="6"/>
+      <c r="S33" s="9"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -3552,7 +5976,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="6"/>
+      <c r="S34" s="9"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -3577,7 +6001,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="6"/>
+      <c r="S35" s="9"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -3602,7 +6026,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="6"/>
+      <c r="S36" s="9"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -3627,7 +6051,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="6"/>
+      <c r="S37" s="9"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -3652,7 +6076,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="6"/>
+      <c r="S38" s="9"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
@@ -3677,7 +6101,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="6"/>
+      <c r="S39" s="9"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
@@ -3702,7 +6126,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="6"/>
+      <c r="S40" s="9"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -3727,7 +6151,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="6"/>
+      <c r="S41" s="9"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
@@ -3752,7 +6176,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="6"/>
+      <c r="S42" s="9"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
@@ -3777,7 +6201,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="6"/>
+      <c r="S43" s="9"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
@@ -3802,7 +6226,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="6"/>
+      <c r="S44" s="9"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
@@ -3827,7 +6251,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="6"/>
+      <c r="S45" s="9"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -3852,7 +6276,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="6"/>
+      <c r="S46" s="9"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
@@ -3877,7 +6301,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="6"/>
+      <c r="S47" s="9"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -3902,7 +6326,7 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="6"/>
+      <c r="S48" s="9"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
@@ -3927,7 +6351,7 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="6"/>
+      <c r="S49" s="9"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
@@ -3952,7 +6376,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="6"/>
+      <c r="S50" s="9"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -3977,7 +6401,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="6"/>
+      <c r="S51" s="9"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -4002,7 +6426,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="6"/>
+      <c r="S52" s="9"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
@@ -4027,7 +6451,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="6"/>
+      <c r="S53" s="9"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
@@ -4052,7 +6476,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="6"/>
+      <c r="S54" s="9"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
@@ -4077,7 +6501,7 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="6"/>
+      <c r="S55" s="9"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
@@ -4102,7 +6526,7 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
-      <c r="S56" s="6"/>
+      <c r="S56" s="9"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
@@ -4127,7 +6551,7 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
-      <c r="S57" s="6"/>
+      <c r="S57" s="9"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
@@ -4152,7 +6576,7 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
-      <c r="S58" s="6"/>
+      <c r="S58" s="9"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
@@ -4177,7 +6601,7 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="6"/>
+      <c r="S59" s="9"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
@@ -4202,7 +6626,7 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="6"/>
+      <c r="S60" s="9"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
@@ -4227,7 +6651,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="6"/>
+      <c r="S61" s="9"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
@@ -4252,7 +6676,7 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="6"/>
+      <c r="S62" s="9"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
@@ -4277,7 +6701,7 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="6"/>
+      <c r="S63" s="9"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
@@ -4302,7 +6726,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="6"/>
+      <c r="S64" s="9"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
@@ -4327,7 +6751,7 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
-      <c r="S65" s="6"/>
+      <c r="S65" s="9"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
@@ -4352,7 +6776,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
-      <c r="S66" s="6"/>
+      <c r="S66" s="9"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
@@ -4377,7 +6801,7 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
-      <c r="S67" s="6"/>
+      <c r="S67" s="9"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
@@ -4402,7 +6826,7 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="6"/>
+      <c r="S68" s="9"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
@@ -4427,7 +6851,7 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
-      <c r="S69" s="6"/>
+      <c r="S69" s="9"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
@@ -4452,7 +6876,7 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
-      <c r="S70" s="6"/>
+      <c r="S70" s="9"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
@@ -4477,7 +6901,7 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
-      <c r="S71" s="6"/>
+      <c r="S71" s="9"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
@@ -4502,16 +6926,88 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
-      <c r="S72" s="7"/>
+      <c r="S72" s="9"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4537,14 +7033,14 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4557,16 +7053,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>102</v>
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4575,16 +7071,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4593,16 +7089,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>105</v>
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4611,13 +7107,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4626,41 +7122,59 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4671,6 +7185,9 @@
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4694,7 +7211,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4707,16 +7224,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>102</v>
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4725,16 +7242,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4743,16 +7260,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>105</v>
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4761,13 +7278,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4776,58 +7293,60 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4839,6 +7358,9 @@
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4862,7 +7384,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4875,16 +7397,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>102</v>
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4893,16 +7415,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>36</v>
+        <v>127</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4911,16 +7433,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>105</v>
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4929,13 +7451,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4944,56 +7466,62 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5005,6 +7533,9 @@
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5021,14 +7552,14 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5041,16 +7572,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>102</v>
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -5059,16 +7590,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -5077,16 +7608,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>105</v>
+        <v>128</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -5095,13 +7626,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -5110,62 +7641,110 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>61</v>
+      <c r="B5" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5173,6 +7752,10 @@
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,6 +33,9 @@
     <sheet name="talkWithUnavailableSpeaker_talkWithOneOrMoreUnavailableSpeaker" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="talkWithUnavailableSpeaker_talkWithOneOrMoreUnavailableSpeaker_2" sheetId="24" state="visible" r:id="rId25"/>
     <sheet name="talkWithUnavailableSpeaker_talkWithOneOrMoreUnavailableSpeaker_3" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="speakerConflict_setup" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="speakerConflict_speakerHasNoConflictingTimeslots" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="speakerConflict_speakerHasConflictingTimeslots" sheetId="28" state="visible" r:id="rId29"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="140">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -268,6 +271,28 @@
     <t xml:space="preserve">talkWithUnavailableSpeaker_talkType1</t>
   </si>
   <si>
+    <t xml:space="preserve">Fri 2018-01-05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">speakerConflict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_talkType1</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
@@ -304,6 +329,25 @@
     <t xml:space="preserve">talkWithUnavailableSpeaker_room1</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">speakerConflict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_room1</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Required timeslot tags</t>
   </si>
   <si>
@@ -338,6 +382,25 @@
   </si>
   <si>
     <t xml:space="preserve">talkWithUnavailableSpeaker_speaker4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">speakerConflict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_speaker1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -469,6 +532,44 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">speakerConflict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_talk1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">speakerConflict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_talk2</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Constraint package</t>
   </si>
   <si>
@@ -491,6 +592,9 @@
   </si>
   <si>
     <t xml:space="preserve">-1hard/0soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speakerConflict_talk1</t>
   </si>
 </sst>
 </file>
@@ -622,10 +726,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -647,6 +747,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -746,7 +850,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="A20:C20 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1119,7 +1223,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="1" sqref="A20:C20 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1132,16 +1236,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1150,7 +1254,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>36</v>
@@ -1159,7 +1263,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1168,16 +1272,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1186,13 +1290,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1205,26 +1309,26 @@
         <v>66</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1239,60 +1343,60 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1301,11 +1405,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1341,7 +1445,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="1" sqref="A20:C20 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1354,16 +1458,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1372,7 +1476,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>36</v>
@@ -1381,7 +1485,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1390,16 +1494,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1408,13 +1512,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1427,26 +1531,26 @@
         <v>66</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1461,58 +1565,58 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1521,11 +1625,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1561,7 +1665,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="1" sqref="A20:C20 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1574,16 +1678,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1592,7 +1696,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>36</v>
@@ -1601,7 +1705,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1610,16 +1714,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1628,13 +1732,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1647,26 +1751,26 @@
         <v>66</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1681,59 +1785,59 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1742,11 +1846,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1782,7 +1886,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="1" sqref="A20:C20 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1795,16 +1899,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1813,7 +1917,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>36</v>
@@ -1822,7 +1926,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1831,16 +1935,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1849,13 +1953,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1868,26 +1972,26 @@
         <v>66</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1902,58 +2006,58 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1961,11 +2065,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2001,7 +2105,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="1" sqref="A20:C20 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2014,16 +2118,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2032,7 +2136,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>38</v>
@@ -2041,7 +2145,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2050,16 +2154,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2068,13 +2172,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2088,28 +2192,28 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -2123,37 +2227,37 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2190,7 +2294,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="1" sqref="A20:C20 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2203,16 +2307,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2221,7 +2325,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>38</v>
@@ -2230,7 +2334,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2239,16 +2343,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2257,13 +2361,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2277,28 +2381,28 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -2312,41 +2416,41 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2383,7 +2487,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="1" sqref="A20:C20 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2396,16 +2500,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2414,7 +2518,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>38</v>
@@ -2423,7 +2527,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2432,16 +2536,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2450,13 +2554,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2470,28 +2574,28 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -2505,40 +2609,40 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2575,7 +2679,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="1" sqref="A20:C20 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2588,16 +2692,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2606,7 +2710,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>38</v>
@@ -2615,7 +2719,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2624,16 +2728,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2642,13 +2746,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2662,28 +2766,28 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -2697,39 +2801,39 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2766,7 +2870,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="1" sqref="A20:C20 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2779,16 +2883,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2797,16 +2901,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2815,16 +2919,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2833,13 +2937,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2852,26 +2956,26 @@
         <v>72</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2886,20 +2990,20 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2937,7 +3041,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B7" activeCellId="1" sqref="A20:C20 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2950,16 +3054,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2968,16 +3072,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2986,16 +3090,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3004,13 +3108,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -3023,26 +3127,26 @@
         <v>72</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3057,22 +3161,22 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3109,7 +3213,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="A19" activeCellId="1" sqref="A20:C20 A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3294,11 +3398,60 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3324,7 +3477,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="1" sqref="A20:C20 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3337,16 +3490,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3355,16 +3508,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3373,16 +3526,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3391,13 +3544,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -3410,26 +3563,26 @@
         <v>72</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3444,21 +3597,21 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3496,7 +3649,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="1" sqref="A20:C20 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3509,16 +3662,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3527,16 +3680,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3545,16 +3698,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3563,13 +3716,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -3582,26 +3735,26 @@
         <v>72</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3616,21 +3769,21 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3668,7 +3821,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C7" activeCellId="1" sqref="A20:C20 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3681,16 +3834,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3699,16 +3852,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3717,16 +3870,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3735,13 +3888,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -3754,26 +3907,26 @@
         <v>72</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3788,22 +3941,22 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3837,11 +3990,11 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="1" sqref="A20:C20 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3854,16 +4007,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3872,16 +4025,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3890,16 +4043,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3908,13 +4061,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -3927,26 +4080,26 @@
         <v>72</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3961,21 +4114,21 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4013,7 +4166,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B7" activeCellId="1" sqref="A20:C20 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4026,16 +4179,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4044,16 +4197,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4062,16 +4215,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4080,13 +4233,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4099,26 +4252,26 @@
         <v>72</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -4133,21 +4286,21 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4185,7 +4338,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="1" sqref="A20:C20 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4198,16 +4351,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4216,16 +4369,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4234,16 +4387,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4252,13 +4405,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4271,26 +4424,26 @@
         <v>72</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -4305,21 +4458,21 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>127</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4344,19 +4497,545 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="1" sqref="A20:C20 B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C8" activeCellId="1" sqref="A20:C20 C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A7" activeCellId="1" sqref="A20:C20 A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="P1" activeCellId="1" sqref="A20:C20 P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4365,7 +5044,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="4" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="15" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="16" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -4390,12 +5070,15 @@
         <v>72</v>
       </c>
       <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="M1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>59</v>
@@ -4404,38 +5087,45 @@
         <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>64</v>
@@ -4443,13 +5133,13 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
@@ -4457,94 +5147,94 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
@@ -4559,48 +5249,48 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
@@ -4622,30 +5312,67 @@
     </row>
     <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4662,14 +5389,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R4" activeCellId="0" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="A11" activeCellId="1" sqref="A20:C20 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4714,169 +5441,223 @@
         <v>72</v>
       </c>
       <c r="R1" s="4"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
+      <c r="S1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>100</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4952,11 +5733,12 @@
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4975,12 +5757,12 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A20" activeCellId="0" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5012,64 +5794,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>57</v>
@@ -5078,12 +5860,12 @@
         <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -5106,7 +5888,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="9"/>
+      <c r="S2" s="8"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -5114,7 +5896,7 @@
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -5137,7 +5919,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="9"/>
+      <c r="S3" s="8"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -5162,7 +5944,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="9"/>
+      <c r="S4" s="8"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -5170,7 +5952,7 @@
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -5193,7 +5975,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="9"/>
+      <c r="S5" s="8"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -5201,7 +5983,7 @@
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
@@ -5224,7 +6006,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="9"/>
+      <c r="S6" s="8"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -5249,7 +6031,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="8"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -5257,7 +6039,7 @@
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -5280,7 +6062,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="9"/>
+      <c r="S8" s="8"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -5288,7 +6070,7 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
@@ -5311,7 +6093,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="9"/>
+      <c r="S9" s="8"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -5336,7 +6118,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="9"/>
+      <c r="S10" s="8"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -5344,14 +6126,14 @@
     </row>
     <row r="11" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -5369,7 +6151,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="9"/>
+      <c r="S11" s="8"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -5377,14 +6159,14 @@
     </row>
     <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -5402,7 +6184,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="9"/>
+      <c r="S12" s="8"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -5410,14 +6192,14 @@
     </row>
     <row r="13" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -5435,7 +6217,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="9"/>
+      <c r="S13" s="8"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -5443,14 +6225,14 @@
     </row>
     <row r="14" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -5468,7 +6250,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="8"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -5476,14 +6258,14 @@
     </row>
     <row r="15" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -5501,7 +6283,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="8"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -5526,21 +6308,29 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="9"/>
+      <c r="S16" s="8"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
+    <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -5551,21 +6341,29 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="9"/>
+      <c r="S17" s="8"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
+    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -5576,7 +6374,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="9"/>
+      <c r="S18" s="8"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -5601,7 +6399,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="9"/>
+      <c r="S19" s="8"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -5626,7 +6424,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="8"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -5651,7 +6449,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="9"/>
+      <c r="S21" s="8"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -5676,7 +6474,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="8"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -5701,7 +6499,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="9"/>
+      <c r="S23" s="8"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -5726,7 +6524,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="8"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -5751,7 +6549,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="9"/>
+      <c r="S25" s="8"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -5776,7 +6574,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="9"/>
+      <c r="S26" s="8"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
@@ -5801,7 +6599,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="9"/>
+      <c r="S27" s="8"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -5826,7 +6624,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="9"/>
+      <c r="S28" s="8"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -5851,7 +6649,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="9"/>
+      <c r="S29" s="8"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -5876,7 +6674,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="8"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -5901,7 +6699,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="9"/>
+      <c r="S31" s="8"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -5926,7 +6724,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="9"/>
+      <c r="S32" s="8"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -5951,7 +6749,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="9"/>
+      <c r="S33" s="8"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -5976,7 +6774,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="9"/>
+      <c r="S34" s="8"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -6001,7 +6799,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="9"/>
+      <c r="S35" s="8"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -6026,7 +6824,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="9"/>
+      <c r="S36" s="8"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -6051,7 +6849,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="9"/>
+      <c r="S37" s="8"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -6076,7 +6874,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="9"/>
+      <c r="S38" s="8"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
@@ -6101,7 +6899,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="9"/>
+      <c r="S39" s="8"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
@@ -6126,7 +6924,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="9"/>
+      <c r="S40" s="8"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -6151,7 +6949,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="9"/>
+      <c r="S41" s="8"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
@@ -6176,7 +6974,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="9"/>
+      <c r="S42" s="8"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
@@ -6201,7 +6999,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="9"/>
+      <c r="S43" s="8"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
@@ -6226,7 +7024,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="9"/>
+      <c r="S44" s="8"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
@@ -6251,7 +7049,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="9"/>
+      <c r="S45" s="8"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -6276,7 +7074,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="9"/>
+      <c r="S46" s="8"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
@@ -6301,7 +7099,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="9"/>
+      <c r="S47" s="8"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -6326,7 +7124,7 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="9"/>
+      <c r="S48" s="8"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
@@ -6351,7 +7149,7 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="9"/>
+      <c r="S49" s="8"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
@@ -6376,7 +7174,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="9"/>
+      <c r="S50" s="8"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -6401,7 +7199,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="9"/>
+      <c r="S51" s="8"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -6426,7 +7224,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="9"/>
+      <c r="S52" s="8"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
@@ -6451,7 +7249,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="9"/>
+      <c r="S53" s="8"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
@@ -6476,7 +7274,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="9"/>
+      <c r="S54" s="8"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
@@ -6501,7 +7299,7 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="9"/>
+      <c r="S55" s="8"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
@@ -6526,7 +7324,7 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
-      <c r="S56" s="9"/>
+      <c r="S56" s="8"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
@@ -6551,7 +7349,7 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
-      <c r="S57" s="9"/>
+      <c r="S57" s="8"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
@@ -6576,7 +7374,7 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
-      <c r="S58" s="9"/>
+      <c r="S58" s="8"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
@@ -6601,7 +7399,7 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="9"/>
+      <c r="S59" s="8"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
@@ -6626,7 +7424,7 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="9"/>
+      <c r="S60" s="8"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
@@ -6651,7 +7449,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="9"/>
+      <c r="S61" s="8"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
@@ -6676,7 +7474,7 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="9"/>
+      <c r="S62" s="8"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
@@ -6701,7 +7499,7 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="9"/>
+      <c r="S63" s="8"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
@@ -6726,7 +7524,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="9"/>
+      <c r="S64" s="8"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
@@ -6751,7 +7549,7 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
-      <c r="S65" s="9"/>
+      <c r="S65" s="8"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
@@ -6776,7 +7574,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
-      <c r="S66" s="9"/>
+      <c r="S66" s="8"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
@@ -6801,7 +7599,7 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
-      <c r="S67" s="9"/>
+      <c r="S67" s="8"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
@@ -6826,7 +7624,7 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="9"/>
+      <c r="S68" s="8"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
@@ -6851,7 +7649,7 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
-      <c r="S69" s="9"/>
+      <c r="S69" s="8"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
@@ -6876,7 +7674,7 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
-      <c r="S70" s="9"/>
+      <c r="S70" s="8"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
@@ -6901,7 +7699,7 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
-      <c r="S71" s="9"/>
+      <c r="S71" s="8"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
@@ -6926,7 +7724,7 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
-      <c r="S72" s="9"/>
+      <c r="S72" s="8"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
@@ -6951,7 +7749,7 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
-      <c r="S73" s="9"/>
+      <c r="S73" s="8"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
@@ -6976,7 +7774,7 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
-      <c r="S74" s="9"/>
+      <c r="S74" s="8"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
@@ -7001,7 +7799,7 @@
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
-      <c r="S75" s="10"/>
+      <c r="S75" s="9"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
@@ -7040,7 +7838,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="1" sqref="A20:C20 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7053,16 +7851,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -7071,16 +7869,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -7089,16 +7887,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -7107,13 +7905,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -7126,26 +7924,26 @@
         <v>61</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -7160,20 +7958,20 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7211,7 +8009,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="1" sqref="A20:C20 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7224,16 +8022,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -7242,16 +8040,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -7260,16 +8058,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -7278,13 +8076,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -7297,26 +8095,26 @@
         <v>61</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -7331,22 +8129,22 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7384,7 +8182,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C7" activeCellId="1" sqref="A20:C20 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7397,16 +8195,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -7415,16 +8213,16 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -7433,16 +8231,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -7451,13 +8249,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -7470,26 +8268,26 @@
         <v>61</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -7504,24 +8302,24 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7559,7 +8357,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="1" sqref="A20:C20 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7572,16 +8370,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -7590,7 +8388,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>36</v>
@@ -7599,7 +8397,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -7608,16 +8406,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -7626,13 +8424,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -7645,26 +8443,26 @@
         <v>66</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -7679,58 +8477,58 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -7739,11 +8537,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,29 +13,25 @@
     <sheet name="Rooms" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Speakers" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Talks" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="talkTypeOfTimeslot_setup" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="talkTypeOfTimeslot_timeslotWithMatchingTalkType" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="talkTypeOfTimeslot_timeslotWithNonMatchingTalkType" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="talkHasUnavailableRoom_setup" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="talkHasUnavailableRoom_talkWithAvailableRoom" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="talkHasUnavailableRoom_talkWithUnavailableRoom" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="talkHasUnavailableRoom_talkWithAvailableRoom_2" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="talkHasUnavailableRoom_talkWithUnavailableRoom_2" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="roomConflict_setup" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="roomConflict_talksInSameRoomWithoutOverlappingTimeslots" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="roomConflict_talksInSameRoomWithOverlappingTimeslots" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="roomConflict_talksInDifferentRoomsWithOverlappingTimeslots" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="talkWithUnavailableSpeaker_setup" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="talkWithUnavailableSpeaker_talkWithoutUnavailableSpeaker" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="talkWithUnavailableSpeaker_talkWithoutUnavailableSpeaker_2" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="talkWithUnavailableSpeaker_talkWithoutUnavailableTwoSpeakers" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="talkWithUnavailableSpeaker_talkWithoutUnavailableTwoSpeakers_2" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="talkWithUnavailableSpeaker_talkWithOneOrMoreUnavailableSpeaker" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="talkWithUnavailableSpeaker_talkWithOneOrMoreUnavailableSpeaker_2" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="talkWithUnavailableSpeaker_talkWithOneOrMoreUnavailableSpeaker_3" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="speakerConflict_setup" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="speakerConflict_speakerHasNoConflictingTimeslots" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="speakerConflict_speakerHasConflictingTimeslots" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="talkTypeOfTimeslot_timeslotWithMatchingTalkType" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="talkTypeOfTimeslot_timeslotWithNonMatchingTalkType" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="talkHasUnavailableRoom_setup" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="talkHasUnavailableRoom_talkWithAvailableRoom" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="talkHasUnavailableRoom_talkWithUnavailableRoom" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="talkHasUnavailableRoom_talkWithAvailableRoom_2" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="talkHasUnavailableRoom_talkWithUnavailableRoom_2" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="roomConflict_talksInSameRoomWithoutOverlappingTimeslots" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="roomConflict_talksInSameRoomWithOverlappingTimeslots" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="roomConflict_talksInDifferentRoomsWithOverlappingTimeslots" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="talkWithUnavailableSpeaker_talkWithoutUnavailableSpeaker" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="talkWithUnavailableSpeaker_talkWithoutUnavailableSpeaker_2" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="talkWithUnavailableSpeaker_talkWithoutUnavailableTwoSpeakers" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="talkWithUnavailableSpeaker_talkWithoutUnavailableTwoSpeakers_2" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="talkWithUnavailableSpeaker_talkWithOneOrMoreUnavailableSpeaker" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="talkWithUnavailableSpeaker_talkWithOneOrMoreUnavailableSpeaker_2" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="talkWithUnavailableSpeaker_talkWithOneOrMoreUnavailableSpeaker_3" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="speakerConflict_speakerHasNoConflictingTimeslots" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="speakerConflict_speakerHasConflictingTimeslots" sheetId="24" state="visible" r:id="rId25"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -47,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="140">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -850,7 +846,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="A20:C20 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1223,7 +1219,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="1" sqref="A20:C20 A10"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1275,7 +1271,7 @@
         <v>134</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1345,9 +1341,6 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
@@ -1364,7 +1357,6 @@
       <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
@@ -1381,7 +1373,9 @@
       <c r="A9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="4"/>
       <c r="E9" s="11"/>
@@ -1445,7 +1439,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="1" sqref="A20:C20 A10"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1497,7 +1491,7 @@
         <v>134</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1583,6 +1577,9 @@
       <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
@@ -1599,9 +1596,7 @@
       <c r="A9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="11"/>
       <c r="D9" s="4"/>
       <c r="E9" s="11"/>
@@ -1665,7 +1660,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="1" sqref="A20:C20 A10"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1717,7 +1712,7 @@
         <v>134</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1803,9 +1798,6 @@
       <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
@@ -1822,7 +1814,6 @@
       <c r="A9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="4"/>
       <c r="C9" s="11"/>
       <c r="D9" s="4"/>
       <c r="E9" s="11"/>
@@ -1839,7 +1830,9 @@
       <c r="A10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1879,14 +1872,14 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="1" sqref="A20:C20 A10"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1920,7 +1913,7 @@
         <v>133</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1938,7 +1931,7 @@
         <v>134</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1969,10 +1962,10 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="11"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -1990,10 +1983,12 @@
       <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2005,11 +2000,16 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>81</v>
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2021,9 +2021,10 @@
       <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
@@ -2036,41 +2037,8 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2078,9 +2046,8 @@
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F9:H9"/>
+  <mergeCells count="1">
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2105,7 +2072,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="1" sqref="A20:C20 B5"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2157,7 +2124,7 @@
         <v>134</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2229,9 +2196,12 @@
       <c r="A7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2294,7 +2264,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="1" sqref="A20:C20 B5"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2418,12 +2388,8 @@
       <c r="A7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
@@ -2440,7 +2406,9 @@
         <v>86</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
@@ -2480,14 +2448,14 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="1" sqref="A20:C20 B5"/>
+      <selection pane="bottomRight" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2520,8 +2488,8 @@
       <c r="A2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>38</v>
+      <c r="B2" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2539,7 +2507,7 @@
         <v>134</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2570,10 +2538,10 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -2591,12 +2559,10 @@
       <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2609,14 +2575,13 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>120</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2627,23 +2592,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2654,7 +2603,7 @@
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2672,14 +2621,14 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="1" sqref="A20:C20 B5"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2712,8 +2661,8 @@
       <c r="A2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>38</v>
+      <c r="B2" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2762,10 +2711,10 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -2783,12 +2732,10 @@
       <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2801,11 +2748,12 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2816,25 +2764,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2845,7 +2775,7 @@
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2870,7 +2800,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="1" sqref="A20:C20 B5"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2992,8 +2922,9 @@
       <c r="A7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
@@ -3041,7 +2972,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" activeCellId="1" sqref="A20:C20 B7"/>
+      <selection pane="bottomRight" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3163,10 +3094,10 @@
       <c r="A7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
@@ -3213,7 +3144,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" activeCellId="1" sqref="A20:C20 A19"/>
+      <selection pane="bottomRight" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3477,7 +3408,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" activeCellId="1" sqref="A20:C20 B8"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3529,7 +3460,7 @@
         <v>134</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3599,8 +3530,8 @@
       <c r="A7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>121</v>
+      <c r="B7" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
@@ -3649,7 +3580,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" activeCellId="1" sqref="A20:C20 B8"/>
+      <selection pane="bottomRight" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3701,7 +3632,7 @@
         <v>134</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3772,7 +3703,7 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
@@ -3821,7 +3752,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" activeCellId="1" sqref="A20:C20 C7"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3873,7 +3804,7 @@
         <v>134</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3943,9 +3874,8 @@
       <c r="A7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>122</v>
+      <c r="B7" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
@@ -3994,7 +3924,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="1" sqref="A20:C20 B4"/>
+      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4028,7 +3958,7 @@
         <v>133</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -4046,7 +3976,7 @@
         <v>134</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4077,10 +4007,10 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="11"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -4099,9 +4029,11 @@
         <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4113,13 +4045,16 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="7"/>
+      <c r="A7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4141,7 +4076,7 @@
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4166,701 +4101,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" activeCellId="1" sqref="A20:C20 B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B5:C5"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF00DCFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" activeCellId="1" sqref="A20:C20 B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B5:C5"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF00DCFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="1" sqref="A20:C20 B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF00DCFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" activeCellId="1" sqref="A20:C20 C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF00DCFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A7" activeCellId="1" sqref="A20:C20 A7"/>
+      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5035,7 +4276,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P1" activeCellId="1" sqref="A20:C20 P1"/>
+      <selection pane="bottomRight" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5396,7 +4637,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" activeCellId="1" sqref="A20:C20 A11"/>
+      <selection pane="bottomRight" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5757,12 +4998,12 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A20" activeCellId="0" sqref="A20:C20"/>
+      <selection pane="bottomRight" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7833,12 +7074,12 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="1" sqref="A20:C20 B5"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7960,7 +7201,9 @@
       <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
@@ -8009,7 +7252,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="1" sqref="A20:C20 B5"/>
+      <selection pane="bottomRight" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8134,7 +7377,9 @@
       <c r="B7" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
@@ -8175,14 +7420,14 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" activeCellId="1" sqref="A20:C20 C7"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8215,8 +7460,8 @@
       <c r="A2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>33</v>
+      <c r="B2" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -8265,7 +7510,7 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="11"/>
@@ -8302,14 +7547,10 @@
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>116</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
@@ -8321,9 +7562,57 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8331,8 +7620,9 @@
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -8357,7 +7647,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="1" sqref="A20:C20 A10"/>
+      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8479,7 +7769,9 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="117">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -265,9 +265,6 @@
   </si>
   <si>
     <t xml:space="preserve">unavailableRoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fri 2018-01-05</t>
   </si>
   <si>
     <t xml:space="preserve">Required timeslot tags</t>
@@ -518,11 +515,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1015,11 +1012,11 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1032,10 +1029,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1050,7 +1047,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>38</v>
@@ -1068,10 +1065,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1118,7 +1115,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -1143,20 +1140,20 @@
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
@@ -1192,11 +1189,11 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1209,10 +1206,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1227,7 +1224,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>38</v>
@@ -1245,10 +1242,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1295,7 +1292,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -1320,19 +1317,19 @@
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
@@ -1368,11 +1365,11 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1385,10 +1382,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1403,7 +1400,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>38</v>
@@ -1421,10 +1418,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1471,7 +1468,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -1497,15 +1494,15 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
@@ -1513,18 +1510,18 @@
       <c r="A8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
@@ -1559,11 +1556,11 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1576,10 +1573,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1594,7 +1591,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>40</v>
@@ -1612,10 +1609,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1662,7 +1659,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -1688,16 +1685,16 @@
         <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
@@ -1733,11 +1730,11 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1750,10 +1747,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1768,7 +1765,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>40</v>
@@ -1786,10 +1783,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1836,7 +1833,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -1863,16 +1860,16 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
@@ -1908,11 +1905,11 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1925,10 +1922,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1943,7 +1940,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>40</v>
@@ -1961,10 +1958,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2011,7 +2008,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -2037,16 +2034,16 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
@@ -2082,11 +2079,11 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2099,10 +2096,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2115,9 +2112,9 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>40</v>
@@ -2135,10 +2132,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2185,7 +2182,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -2211,16 +2208,16 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
@@ -2256,11 +2253,11 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2273,10 +2270,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2291,7 +2288,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>42</v>
@@ -2309,10 +2306,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2359,7 +2356,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -2385,19 +2382,19 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
@@ -2433,11 +2430,11 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2450,10 +2447,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2468,7 +2465,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>42</v>
@@ -2486,10 +2483,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2536,7 +2533,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -2562,15 +2559,15 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
@@ -2578,18 +2575,18 @@
       <c r="A8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
@@ -2622,12 +2619,12 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2733,14 +2730,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2808,25 +2805,17 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2854,7 +2843,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2888,9 +2877,7 @@
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
@@ -2899,28 +2886,28 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>70</v>
@@ -2931,19 +2918,13 @@
       <c r="L2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2954,15 +2935,15 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2973,15 +2954,15 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -2992,15 +2973,15 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3039,12 +3020,12 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3076,64 +3057,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>57</v>
@@ -3142,19 +3123,19 @@
         <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3180,14 +3161,14 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -3211,15 +3192,23 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -3236,16 +3225,16 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3269,16 +3258,16 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3326,39 +3315,6 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
@@ -4824,11 +4780,11 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4841,10 +4797,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -4859,7 +4815,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -4877,10 +4833,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4927,7 +4883,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -4953,17 +4909,17 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
@@ -4999,11 +4955,11 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5016,10 +4972,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5034,7 +4990,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -5052,10 +5008,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5102,7 +5058,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -5124,21 +5080,21 @@
       <c r="M6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
@@ -5174,11 +5130,11 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5191,10 +5147,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5209,7 +5165,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>36</v>
@@ -5227,10 +5183,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5277,7 +5233,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -5299,21 +5255,21 @@
       <c r="M6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
@@ -5349,11 +5305,11 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5366,10 +5322,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5384,7 +5340,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>36</v>
@@ -5402,10 +5358,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5452,7 +5408,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -5474,20 +5430,20 @@
       <c r="M6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>102</v>
+      <c r="C7" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -398,7 +398,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -428,20 +428,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -498,7 +488,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -515,23 +505,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -543,19 +521,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1031,14 +1001,14 @@
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1049,14 +1019,14 @@
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1067,14 +1037,14 @@
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1083,13 +1053,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1103,15 +1073,15 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1120,42 +1090,42 @@
       <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1208,14 +1178,14 @@
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1226,14 +1196,14 @@
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1244,14 +1214,14 @@
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1260,13 +1230,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1280,15 +1250,15 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1297,41 +1267,41 @@
       <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1384,14 +1354,14 @@
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1402,14 +1372,14 @@
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1420,14 +1390,14 @@
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1436,13 +1406,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1456,15 +1426,15 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1473,21 +1443,21 @@
       <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -1496,34 +1466,34 @@
       <c r="B7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1575,14 +1545,14 @@
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1593,14 +1563,14 @@
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1611,14 +1581,14 @@
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1627,13 +1597,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1647,15 +1617,15 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1664,21 +1634,21 @@
       <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -1687,16 +1657,16 @@
       <c r="C7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1749,14 +1719,14 @@
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1767,14 +1737,14 @@
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1785,14 +1755,14 @@
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1801,13 +1771,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1821,15 +1791,15 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1838,21 +1808,21 @@
       <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -1862,16 +1832,16 @@
       <c r="C7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1924,14 +1894,14 @@
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1942,14 +1912,14 @@
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1960,14 +1930,14 @@
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1976,13 +1946,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1996,15 +1966,15 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -2013,21 +1983,21 @@
       <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -2036,16 +2006,16 @@
       <c r="B7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2098,14 +2068,14 @@
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2116,14 +2086,14 @@
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2134,14 +2104,14 @@
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2150,13 +2120,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2170,15 +2140,15 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -2187,21 +2157,21 @@
       <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -2210,16 +2180,16 @@
       <c r="B7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2272,14 +2242,14 @@
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2290,14 +2260,14 @@
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2308,14 +2278,14 @@
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2324,13 +2294,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2344,15 +2314,15 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -2367,15 +2337,15 @@
       <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -2384,19 +2354,19 @@
       <c r="B7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2449,14 +2419,14 @@
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2467,14 +2437,14 @@
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2485,14 +2455,14 @@
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2501,13 +2471,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2521,15 +2491,15 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -2544,15 +2514,15 @@
       <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -2561,34 +2531,34 @@
       <c r="B7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2619,7 +2589,7 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
@@ -2806,16 +2776,16 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2912,10 +2882,10 @@
       <c r="J2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="M2" s="1"/>
@@ -2926,77 +2896,77 @@
       <c r="A3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3127,7 +3097,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="2"/>
@@ -3153,7 +3123,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="9"/>
+      <c r="S2" s="6"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -3186,7 +3156,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="9"/>
+      <c r="S3" s="6"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -3219,7 +3189,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="9"/>
+      <c r="S4" s="6"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -3252,7 +3222,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="9"/>
+      <c r="S5" s="6"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -3285,7 +3255,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="9"/>
+      <c r="S6" s="6"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -3310,7 +3280,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="6"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -3335,7 +3305,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="9"/>
+      <c r="S9" s="6"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -3360,7 +3330,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="9"/>
+      <c r="S10" s="6"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -3385,7 +3355,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="9"/>
+      <c r="S11" s="6"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -3410,7 +3380,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="9"/>
+      <c r="S12" s="6"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -3435,7 +3405,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="9"/>
+      <c r="S13" s="6"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -3460,7 +3430,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="6"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -3485,7 +3455,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="6"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -3510,7 +3480,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="9"/>
+      <c r="S16" s="6"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -3535,7 +3505,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="9"/>
+      <c r="S17" s="6"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -3560,7 +3530,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="9"/>
+      <c r="S18" s="6"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -3585,7 +3555,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="9"/>
+      <c r="S19" s="6"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -3610,7 +3580,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="6"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -3635,7 +3605,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="9"/>
+      <c r="S21" s="6"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -3660,7 +3630,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="6"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -3685,7 +3655,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="9"/>
+      <c r="S23" s="6"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -3710,7 +3680,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="6"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -3735,7 +3705,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="9"/>
+      <c r="S25" s="6"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -3760,7 +3730,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="9"/>
+      <c r="S26" s="6"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
@@ -3785,7 +3755,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="9"/>
+      <c r="S27" s="6"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -3810,7 +3780,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="9"/>
+      <c r="S28" s="6"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -3835,7 +3805,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="9"/>
+      <c r="S29" s="6"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -3860,7 +3830,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="6"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -3885,7 +3855,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="9"/>
+      <c r="S31" s="6"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -3910,7 +3880,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="9"/>
+      <c r="S32" s="6"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -3935,7 +3905,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="9"/>
+      <c r="S33" s="6"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -3960,7 +3930,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="9"/>
+      <c r="S34" s="6"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -3985,7 +3955,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="9"/>
+      <c r="S35" s="6"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -4010,7 +3980,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="9"/>
+      <c r="S36" s="6"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -4035,7 +4005,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="9"/>
+      <c r="S37" s="6"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -4060,7 +4030,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="9"/>
+      <c r="S38" s="6"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
@@ -4085,7 +4055,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="9"/>
+      <c r="S39" s="6"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
@@ -4110,7 +4080,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="9"/>
+      <c r="S40" s="6"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -4135,7 +4105,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="9"/>
+      <c r="S41" s="6"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
@@ -4160,7 +4130,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="9"/>
+      <c r="S42" s="6"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
@@ -4185,7 +4155,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="9"/>
+      <c r="S43" s="6"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
@@ -4210,7 +4180,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="9"/>
+      <c r="S44" s="6"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
@@ -4235,7 +4205,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="9"/>
+      <c r="S45" s="6"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -4260,7 +4230,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="9"/>
+      <c r="S46" s="6"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
@@ -4285,7 +4255,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="9"/>
+      <c r="S47" s="6"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -4310,7 +4280,7 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="9"/>
+      <c r="S48" s="6"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
@@ -4335,7 +4305,7 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="9"/>
+      <c r="S49" s="6"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
@@ -4360,7 +4330,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="9"/>
+      <c r="S50" s="6"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -4385,7 +4355,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="9"/>
+      <c r="S51" s="6"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -4410,7 +4380,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="9"/>
+      <c r="S52" s="6"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
@@ -4435,7 +4405,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="9"/>
+      <c r="S53" s="6"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
@@ -4460,7 +4430,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="9"/>
+      <c r="S54" s="6"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
@@ -4485,7 +4455,7 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="9"/>
+      <c r="S55" s="6"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
@@ -4510,7 +4480,7 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
-      <c r="S56" s="9"/>
+      <c r="S56" s="6"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
@@ -4535,7 +4505,7 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
-      <c r="S57" s="9"/>
+      <c r="S57" s="6"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
@@ -4560,7 +4530,7 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
-      <c r="S58" s="9"/>
+      <c r="S58" s="6"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
@@ -4585,7 +4555,7 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="9"/>
+      <c r="S59" s="6"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
@@ -4610,7 +4580,7 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="9"/>
+      <c r="S60" s="6"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
@@ -4635,7 +4605,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="9"/>
+      <c r="S61" s="6"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
@@ -4660,7 +4630,7 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="9"/>
+      <c r="S62" s="6"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
@@ -4685,7 +4655,7 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="9"/>
+      <c r="S63" s="6"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
@@ -4710,7 +4680,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="9"/>
+      <c r="S64" s="6"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
@@ -4735,7 +4705,7 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
-      <c r="S65" s="10"/>
+      <c r="S65" s="7"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
@@ -4799,14 +4769,14 @@
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4817,14 +4787,14 @@
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4835,14 +4805,14 @@
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4851,13 +4821,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4871,15 +4841,15 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -4888,21 +4858,21 @@
       <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -4911,17 +4881,17 @@
       <c r="B7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4954,12 +4924,12 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4974,14 +4944,14 @@
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4992,14 +4962,14 @@
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -5010,14 +4980,14 @@
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -5026,13 +4996,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -5046,15 +5016,15 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -5063,40 +5033,40 @@
       <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5149,14 +5119,14 @@
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -5167,14 +5137,14 @@
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -5185,14 +5155,14 @@
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -5201,13 +5171,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -5221,15 +5191,15 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -5238,40 +5208,40 @@
       <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5324,14 +5294,14 @@
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -5342,14 +5312,14 @@
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -5360,14 +5330,14 @@
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -5376,13 +5346,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -5396,15 +5366,15 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -5413,39 +5383,39 @@
       <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -13,8 +13,8 @@
     <sheet name="Rooms" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Speakers" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Talks" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="talkTypeOfTimeslot_timeslotWithMatchingTalkType" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="talkTypeOfTimeslot_timeslotWithNonMatchingTalkType" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Talk type of timeslot 1" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Talk type of timeslot 2" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="talkHasUnavailableRoom_talkWithAvailableRoom" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="talkHasUnavailableRoom_talkWithUnavailableRoom" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="roomConflict_talksInSameRoomWithoutOverlappingTimeslots" sheetId="10" state="visible" r:id="rId11"/>
@@ -1530,7 +1530,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4747,14 +4747,14 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4902,6 +4902,7 @@
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:D5"/>
@@ -4929,7 +4930,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5104,7 +5105,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5279,7 +5280,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,17 +15,17 @@
     <sheet name="Talks" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Talk type of timeslot 1" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Talk type of timeslot 2" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="talkHasUnavailableRoom_talkWithAvailableRoom" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="talkHasUnavailableRoom_talkWithUnavailableRoom" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="roomConflict_talksInSameRoomWithoutOverlappingTimeslots" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="roomConflict_talksInSameRoomWithOverlappingTimeslots" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="roomConflict_talksInDifferentRoomsWithOverlappingTimeslots" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="talkWithUnavailableSpeaker_talkWithoutUnavailableSpeaker" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="talkWithUnavailableSpeaker_talkWithoutUnavailableTwoSpeakers" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="talkWithUnavailableSpeaker_talkWithOneOrMoreUnavailableSpeaker" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="talkWithUnavailableSpeaker_talkWithOneOrMoreUnavailableSpeaker_2" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="speakerConflict_speakerHasNoConflictingTimeslots" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="speakerConflict_speakerHasConflictingTimeslots" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Room unavailable timeslot 1" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Room unavailable timeslot 2" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Room conflict 1" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Room conflict 2" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Room conflict 3" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Speaker unavailable timeslot 1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Speaker unavailable timeslot 2" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Speaker unavailable timeslot 3" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Speaker unavailable timeslot 4" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Speaker unavailable timeslot 5" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Speaker conflict" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="129">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -231,7 +231,7 @@
     <t xml:space="preserve">10:00</t>
   </si>
   <si>
-    <t xml:space="preserve">normalTalkType</t>
+    <t xml:space="preserve">Normal talk type</t>
   </si>
   <si>
     <t xml:space="preserve">09:30</t>
@@ -240,7 +240,7 @@
     <t xml:space="preserve">10:30</t>
   </si>
   <si>
-    <t xml:space="preserve">nonMatchingTalkType</t>
+    <t xml:space="preserve">Non matching talk type</t>
   </si>
   <si>
     <t xml:space="preserve">11:00</t>
@@ -258,13 +258,13 @@
     <t xml:space="preserve">10:00-11:00</t>
   </si>
   <si>
-    <t xml:space="preserve">normalRoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">normalRoom2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unavailableRoom</t>
+    <t xml:space="preserve">Normal room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal room 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unavailable room</t>
   </si>
   <si>
     <t xml:space="preserve">Required timeslot tags</t>
@@ -342,28 +342,28 @@
     <t xml:space="preserve">Room</t>
   </si>
   <si>
-    <t xml:space="preserve">normalTalk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">normalTalk2</t>
+    <t xml:space="preserve">Normal talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal talk 2</t>
   </si>
   <si>
     <t xml:space="preserve">Amy, John</t>
   </si>
   <si>
-    <t xml:space="preserve">talkWithUnavailableSpeakerPaul</t>
+    <t xml:space="preserve">Talk with unavailable speaker Paul</t>
   </si>
   <si>
     <t xml:space="preserve">Amy, Paul</t>
   </si>
   <si>
-    <t xml:space="preserve">talkWithUnavailableSpeakerPaulAndSarah</t>
+    <t xml:space="preserve">Talk with unavailable speaker Paul and Sarah</t>
   </si>
   <si>
     <t xml:space="preserve">Paul, Sarah</t>
   </si>
   <si>
-    <t xml:space="preserve">talkWithSameSpeakerAsNormalTalk</t>
+    <t xml:space="preserve">Talk with same speaker as normal talk</t>
   </si>
   <si>
     <t xml:space="preserve">Constraint package</t>
@@ -375,19 +375,55 @@
     <t xml:space="preserve">Constraint name</t>
   </si>
   <si>
+    <t xml:space="preserve">Timeslot with matching talk type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Score</t>
   </si>
   <si>
     <t xml:space="preserve">0hard/0soft</t>
   </si>
   <si>
+    <t xml:space="preserve">Timeslot with non matching talk type</t>
+  </si>
+  <si>
     <t xml:space="preserve">-10000hard/0soft</t>
   </si>
   <si>
+    <t xml:space="preserve">Talk with available room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with unavailable room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talks in same room without overlapping timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talks in same room with overlapping timeslots</t>
+  </si>
+  <si>
     <t xml:space="preserve">-10hard/0soft</t>
   </si>
   <si>
+    <t xml:space="preserve">Talks in different rooms with overlapping timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk without unavailable speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk without unavailable two speakers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with one or more unavailable speaker</t>
+  </si>
+  <si>
     <t xml:space="preserve">-1hard/0soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker has no conflicting timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker has conflicting timeslots</t>
   </si>
 </sst>
 </file>
@@ -463,7 +499,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -487,8 +523,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -501,12 +540,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -521,22 +560,59 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Test" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -613,7 +689,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -643,183 +719,183 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3" t="n">
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="3" t="n">
         <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="3" t="n">
         <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="3" t="n">
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="3" t="n">
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="3" t="n">
         <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="3" t="n">
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -830,7 +906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -841,7 +917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -852,7 +928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -863,7 +939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -874,7 +950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -885,7 +961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -896,7 +972,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -907,7 +983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -918,7 +994,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -929,7 +1005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
@@ -940,7 +1016,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -951,7 +1027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
@@ -979,155 +1055,172 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1136,9 +1229,10 @@
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1156,154 +1250,171 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1312,9 +1423,10 @@
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1332,170 +1444,187 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1503,9 +1632,10 @@
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1523,152 +1653,169 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1677,9 +1824,10 @@
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1697,153 +1845,170 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1852,9 +2017,10 @@
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1872,152 +2038,169 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2026,9 +2209,10 @@
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2046,152 +2230,169 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2200,9 +2401,10 @@
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2220,155 +2422,172 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2377,9 +2596,10 @@
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2397,170 +2617,187 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2568,9 +2805,10 @@
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2594,7 +2832,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2707,7 +2945,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2725,11 +2963,11 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -2775,7 +3013,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
@@ -2783,9 +3021,9 @@
         <v>64</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2842,14 +3080,14 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -2905,8 +3143,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2924,8 +3162,8 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2943,8 +3181,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2991,11 +3229,11 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3110,9 +3348,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3143,9 +3379,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -3162,7 +3396,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>104</v>
       </c>
@@ -3176,9 +3410,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -3195,7 +3427,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
@@ -3209,9 +3441,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -3228,7 +3458,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>108</v>
       </c>
@@ -3242,9 +3472,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -4747,153 +4975,170 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4902,10 +5147,10 @@
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4923,54 +5168,54 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="9"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4978,17 +5223,17 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>114</v>
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4996,80 +5241,97 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>116</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5078,9 +5340,10 @@
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5098,153 +5361,170 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5253,9 +5533,10 @@
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5273,152 +5554,169 @@
     <tabColor rgb="FF00DCFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5427,9 +5725,10 @@
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -684,12 +684,12 @@
   </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -724,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -735,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -790,7 +790,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -801,7 +801,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -812,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -823,7 +823,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -834,7 +834,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -845,7 +845,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
@@ -856,7 +856,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -867,7 +867,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>30</v>
@@ -878,7 +878,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -889,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>
@@ -2424,7 +2424,7 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -42,7 +42,7 @@
     <t xml:space="preserve">Conference name</t>
   </si>
   <si>
-    <t xml:space="preserve">JayFocus 2023</t>
+    <t xml:space="preserve">Junit test</t>
   </si>
   <si>
     <t xml:space="preserve">Constraint</t>
@@ -689,7 +689,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -700,7 +700,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="128">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -141,10 +141,13 @@
     <t xml:space="preserve">Talk type of timeslot</t>
   </si>
   <si>
-    <t xml:space="preserve">n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hard penalty per talk in a timeslot with an other talk type</t>
+    <t xml:space="preserve">Hard penalty per talk in a timeslot with another talk type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk type of room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard penalty per talk in a room with another talk type</t>
   </si>
   <si>
     <t xml:space="preserve">Room unavailable timeslot</t>
@@ -387,7 +390,7 @@
     <t xml:space="preserve">Timeslot with non matching talk type</t>
   </si>
   <si>
-    <t xml:space="preserve">-10000hard/0soft</t>
+    <t xml:space="preserve">-1hard/0soft</t>
   </si>
   <si>
     <t xml:space="preserve">Talk with available room</t>
@@ -402,9 +405,6 @@
     <t xml:space="preserve">Talks in same room with overlapping timeslots</t>
   </si>
   <si>
-    <t xml:space="preserve">-10hard/0soft</t>
-  </si>
-  <si>
     <t xml:space="preserve">Talks in different rooms with overlapping timeslots</t>
   </si>
   <si>
@@ -415,9 +415,6 @@
   </si>
   <si>
     <t xml:space="preserve">Talk with one or more unavailable speaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1hard/0soft</t>
   </si>
   <si>
     <t xml:space="preserve">Speaker has no conflicting timeslots</t>
@@ -580,7 +577,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -612,7 +609,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Test" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -682,14 +679,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -899,143 +896,154 @@
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>34</v>
+      <c r="B29" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
+      <c r="B30" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
+      <c r="B33" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1075,10 +1083,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1093,10 +1101,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1114,7 +1122,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1129,10 +1137,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1163,7 +1171,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1179,16 +1187,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1202,14 +1210,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -1257,7 +1265,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1270,10 +1278,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1288,10 +1296,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1309,7 +1317,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1324,10 +1332,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1358,7 +1366,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1374,16 +1382,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1397,13 +1405,13 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -1464,10 +1472,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1482,10 +1490,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1518,10 +1526,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1552,7 +1560,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1568,16 +1576,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1591,10 +1599,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -1608,11 +1616,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
@@ -1673,10 +1681,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1691,10 +1699,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1727,10 +1735,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1761,7 +1769,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1777,16 +1785,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1800,10 +1808,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
@@ -1865,10 +1873,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1883,10 +1891,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1919,10 +1927,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1953,7 +1961,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1969,16 +1977,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1992,11 +2000,11 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
@@ -2058,10 +2066,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2076,10 +2084,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -2112,10 +2120,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2146,7 +2154,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -2162,16 +2170,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2185,10 +2193,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
@@ -2250,10 +2258,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2268,10 +2276,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -2304,10 +2312,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2338,7 +2346,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -2354,16 +2362,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2377,10 +2385,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
@@ -2442,10 +2450,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2460,10 +2468,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -2481,7 +2489,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2496,10 +2504,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2530,7 +2538,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -2546,16 +2554,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2569,14 +2577,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -2637,10 +2645,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2655,10 +2663,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -2676,7 +2684,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2691,10 +2699,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2725,7 +2733,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -2741,16 +2749,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2764,10 +2772,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -2781,11 +2789,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
@@ -2846,63 +2854,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -2964,37 +2972,37 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3003,10 +3011,10 @@
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3015,10 +3023,10 @@
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
@@ -3081,7 +3089,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -3091,40 +3099,40 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -3132,7 +3140,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3151,7 +3159,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3170,7 +3178,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3189,7 +3197,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3265,85 +3273,85 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3367,14 +3375,14 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -3398,14 +3406,14 @@
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -3429,14 +3437,14 @@
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3460,14 +3468,14 @@
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4995,10 +5003,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -5013,7 +5021,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -5034,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -5049,10 +5057,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -5083,7 +5091,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -5099,16 +5107,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -5122,10 +5130,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -5175,7 +5183,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5188,10 +5196,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5206,7 +5214,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>33</v>
@@ -5227,7 +5235,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5242,10 +5250,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5276,7 +5284,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -5292,16 +5300,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -5315,11 +5323,11 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -5381,10 +5389,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -5399,10 +5407,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -5420,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -5435,10 +5443,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -5469,7 +5477,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -5485,16 +5493,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -5508,10 +5516,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -5561,7 +5569,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5574,10 +5582,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -5592,10 +5600,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -5613,7 +5621,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -5628,10 +5636,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -5662,7 +5670,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -5678,16 +5686,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -5701,10 +5709,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="134">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -210,6 +210,18 @@
     <t xml:space="preserve">Talk prohibited room tag</t>
   </si>
   <si>
+    <t xml:space="preserve">Talk mutually-exclusive-talks tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk prerequisite talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard penalty per talk that is scheduled before any of its prerequisite talks</t>
+  </si>
+  <si>
     <t xml:space="preserve">Day</t>
   </si>
   <si>
@@ -334,6 +346,12 @@
   </si>
   <si>
     <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutually exclusive talks tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisite talks codes</t>
   </si>
   <si>
     <t xml:space="preserve">Pinned by user</t>
@@ -431,7 +449,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -459,6 +477,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -524,7 +548,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -546,6 +570,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -573,7 +601,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -597,7 +625,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -679,14 +707,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1046,6 +1074,30 @@
         <v>54</v>
       </c>
     </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1075,159 +1127,159 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="B4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="15"/>
+        <v>108</v>
+      </c>
+      <c r="C8" s="16"/>
       <c r="D8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+        <v>109</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1270,158 +1322,158 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+        <v>109</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1464,174 +1516,174 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+        <v>108</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="15"/>
+        <v>79</v>
+      </c>
+      <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+        <v>109</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1673,156 +1725,156 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+        <v>108</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1865,157 +1917,157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="16"/>
+        <v>78</v>
+      </c>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+        <v>108</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2058,156 +2110,156 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+        <v>78</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2250,156 +2302,156 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+        <v>78</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2442,159 +2494,159 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>102</v>
+        <v>78</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="C8" s="0"/>
-      <c r="D8" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2637,174 +2689,174 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+        <v>78</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2854,63 +2906,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -2972,37 +3024,37 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3011,10 +3063,10 @@
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3023,10 +3075,10 @@
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
@@ -3089,7 +3141,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -3099,40 +3151,40 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -3140,7 +3192,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3159,7 +3211,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3178,7 +3230,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3197,7 +3249,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3234,17 +3286,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W1048576"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="S3" activeCellId="0" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.95"/>
@@ -3264,94 +3316,102 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>101</v>
+        <v>62</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3367,22 +3427,24 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="6"/>
+      <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="U2" s="7"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -3398,22 +3460,24 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="6"/>
+      <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="U3" s="7"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -3429,22 +3493,24 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="6"/>
+      <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="U4" s="7"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3460,22 +3526,24 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="6"/>
+      <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="U5" s="7"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3491,11 +3559,13 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="6"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="U6" s="7"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
@@ -3516,11 +3586,13 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="6"/>
+      <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="U7" s="7"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
@@ -3541,11 +3613,13 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="6"/>
+      <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="U9" s="7"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
@@ -3566,11 +3640,13 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="6"/>
+      <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="U10" s="7"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
@@ -3591,11 +3667,13 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="6"/>
+      <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="U11" s="7"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
@@ -3616,11 +3694,13 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="6"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="U12" s="7"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
@@ -3641,11 +3721,13 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="6"/>
+      <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="U13" s="7"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
@@ -3666,11 +3748,13 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="6"/>
+      <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="U14" s="7"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
@@ -3691,11 +3775,13 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="6"/>
+      <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="U15" s="7"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
@@ -3716,11 +3802,13 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="6"/>
+      <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
+      <c r="U16" s="7"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
@@ -3741,11 +3829,13 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="6"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
+      <c r="U17" s="7"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
@@ -3766,11 +3856,13 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="6"/>
+      <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
+      <c r="U18" s="7"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
@@ -3791,11 +3883,13 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="6"/>
+      <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="U19" s="7"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
@@ -3816,11 +3910,13 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="6"/>
+      <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
+      <c r="U20" s="7"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
@@ -3841,11 +3937,13 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="6"/>
+      <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
+      <c r="U21" s="7"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
@@ -3866,11 +3964,13 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="6"/>
+      <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
+      <c r="U22" s="7"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
@@ -3891,11 +3991,13 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="6"/>
+      <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
+      <c r="U23" s="7"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
@@ -3916,11 +4018,13 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="6"/>
+      <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
+      <c r="U24" s="7"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
@@ -3941,11 +4045,13 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="6"/>
+      <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
+      <c r="U25" s="7"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
@@ -3966,11 +4072,13 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="6"/>
+      <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
+      <c r="U26" s="7"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
@@ -3991,11 +4099,13 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="6"/>
+      <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
+      <c r="U27" s="7"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
@@ -4016,11 +4126,13 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="6"/>
+      <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
+      <c r="U28" s="7"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
@@ -4041,11 +4153,13 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="6"/>
+      <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
+      <c r="U29" s="7"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
@@ -4066,11 +4180,13 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="6"/>
+      <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
+      <c r="U30" s="7"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
@@ -4091,11 +4207,13 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="6"/>
+      <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
+      <c r="U31" s="7"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
@@ -4116,11 +4234,13 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="6"/>
+      <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
+      <c r="U32" s="7"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
@@ -4141,11 +4261,13 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="6"/>
+      <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
+      <c r="U33" s="7"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
@@ -4166,11 +4288,13 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="6"/>
+      <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
+      <c r="U34" s="7"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
@@ -4191,11 +4315,13 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="6"/>
+      <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
+      <c r="U35" s="7"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
@@ -4216,11 +4342,13 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="6"/>
+      <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+      <c r="U36" s="7"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
@@ -4241,11 +4369,13 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="6"/>
+      <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
+      <c r="U37" s="7"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
@@ -4266,11 +4396,13 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="6"/>
+      <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="U38" s="7"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
@@ -4291,11 +4423,13 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="6"/>
+      <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
+      <c r="U39" s="7"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
@@ -4316,11 +4450,13 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="6"/>
+      <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
+      <c r="U40" s="7"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
@@ -4341,11 +4477,13 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="6"/>
+      <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
+      <c r="U41" s="7"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
@@ -4366,11 +4504,13 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="6"/>
+      <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
+      <c r="U42" s="7"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
@@ -4391,11 +4531,13 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="6"/>
+      <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
+      <c r="U43" s="7"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
@@ -4416,11 +4558,13 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="6"/>
+      <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
+      <c r="U44" s="7"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
@@ -4441,11 +4585,13 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="6"/>
+      <c r="S45" s="2"/>
       <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
+      <c r="U45" s="7"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
@@ -4466,11 +4612,13 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="6"/>
+      <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
+      <c r="U46" s="7"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
@@ -4491,11 +4639,13 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="6"/>
+      <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
+      <c r="U47" s="7"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
@@ -4516,11 +4666,13 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="6"/>
+      <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
+      <c r="U48" s="7"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
@@ -4541,11 +4693,13 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="6"/>
+      <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
+      <c r="U49" s="7"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
@@ -4566,11 +4720,13 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="6"/>
+      <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
+      <c r="U50" s="7"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
@@ -4591,11 +4747,13 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="6"/>
+      <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
+      <c r="U51" s="7"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
@@ -4616,11 +4774,13 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="6"/>
+      <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
+      <c r="U52" s="7"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
@@ -4641,11 +4801,13 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="6"/>
+      <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
+      <c r="U53" s="7"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
@@ -4666,11 +4828,13 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="6"/>
+      <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
+      <c r="U54" s="7"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
@@ -4691,11 +4855,13 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="6"/>
+      <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
+      <c r="U55" s="7"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
@@ -4716,11 +4882,13 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
-      <c r="S56" s="6"/>
+      <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
+      <c r="U56" s="7"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
@@ -4741,11 +4909,13 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
-      <c r="S57" s="6"/>
+      <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
+      <c r="U57" s="7"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
@@ -4766,11 +4936,13 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
-      <c r="S58" s="6"/>
+      <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
+      <c r="U58" s="7"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
@@ -4791,11 +4963,13 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="6"/>
+      <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
+      <c r="U59" s="7"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
@@ -4816,11 +4990,13 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="6"/>
+      <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
+      <c r="U60" s="7"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
@@ -4841,11 +5017,13 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="6"/>
+      <c r="S61" s="2"/>
       <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
+      <c r="U61" s="7"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
@@ -4866,11 +5044,13 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="6"/>
+      <c r="S62" s="2"/>
       <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
+      <c r="U62" s="7"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
@@ -4891,11 +5071,13 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="6"/>
+      <c r="S63" s="2"/>
       <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
+      <c r="U63" s="7"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
@@ -4916,11 +5098,13 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="6"/>
+      <c r="S64" s="2"/>
       <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
+      <c r="U64" s="7"/>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
@@ -4941,31 +5125,14 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
-      <c r="S65" s="7"/>
+      <c r="S65" s="2"/>
       <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
+      <c r="U65" s="8"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4995,157 +5162,157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+        <v>108</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5195,17 +5362,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>111</v>
+      <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="17"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -5213,17 +5380,17 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="17"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -5231,17 +5398,17 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>116</v>
+      <c r="B3" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="17"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -5250,16 +5417,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="17"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -5268,13 +5435,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="17"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -5284,32 +5451,32 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -5323,11 +5490,11 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -5381,157 +5548,157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+        <v>108</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5574,156 +5741,156 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>76</v>
+      <c r="A8" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+        <v>108</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,6 +26,11 @@
     <sheet name="Speaker unavailable timeslot 4" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Speaker unavailable timeslot 5" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="Speaker conflict" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Talk mutually-exclusive-talks tag" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Talk mutually-exclusive-talks tag 2" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="Talk mutually-exclusive-talks tag 3" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Talk mutually-exclusive-talks tag 4" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="Talk mutually-exclusive-talks tag 5" sheetId="23" state="visible" r:id="rId24"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="145">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -279,6 +284,9 @@
     <t xml:space="preserve">Normal room 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Normal room 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unavailable room</t>
   </si>
   <si>
@@ -387,6 +395,18 @@
     <t xml:space="preserve">Talk with same speaker as normal talk</t>
   </si>
   <si>
+    <t xml:space="preserve">RedHat talk 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redhat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RedHat talk 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RedHat talk 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Constraint package</t>
   </si>
   <si>
@@ -439,6 +459,24 @@
   </si>
   <si>
     <t xml:space="preserve">Speaker has conflicting timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutually exclusive talks in non-overlapping timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Mutually exclusive talks in overlapping timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutually exclusive talks in overlapping timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2hard/0soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three Mutually exclusive talks in overlapping timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3hard/0soft</t>
   </si>
 </sst>
 </file>
@@ -479,16 +517,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -548,7 +585,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -570,10 +607,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,7 +634,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -625,8 +658,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -714,7 +755,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1127,159 +1168,159 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="16"/>
+        <v>109</v>
+      </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1322,158 +1363,158 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1516,174 +1557,174 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1725,156 +1766,156 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1917,157 +1958,157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2110,156 +2151,156 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="B8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2302,156 +2343,156 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="B8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2494,159 +2535,159 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>108</v>
+      <c r="B8" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="C8" s="0"/>
-      <c r="D8" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="D8" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2684,180 +2725,374 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="B8" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-    </row>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2993,19 +3228,871 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3073,7 +4160,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -3081,9 +4168,21 @@
         <v>69</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3154,28 +4253,28 @@
         <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>75</v>
@@ -3192,7 +4291,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3211,7 +4310,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3230,7 +4329,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3249,7 +4348,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3288,12 +4387,12 @@
   </sheetPr>
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S3" activeCellId="0" sqref="S3"/>
+      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3327,70 +4426,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>103</v>
+        <v>89</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>62</v>
@@ -3399,19 +4498,19 @@
         <v>63</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3429,7 +4528,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="7"/>
+      <c r="U2" s="6"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -3437,14 +4536,14 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -3462,7 +4561,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="7"/>
+      <c r="U3" s="6"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -3470,14 +4569,14 @@
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -3495,7 +4594,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="7"/>
+      <c r="U4" s="6"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -3503,14 +4602,14 @@
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3528,7 +4627,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="7"/>
+      <c r="U5" s="6"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -3536,14 +4635,14 @@
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3561,16 +4660,20 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="7"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -3586,18 +4689,35 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="T7" s="2"/>
-      <c r="U7" s="7"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3613,9 +4733,11 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="S9" s="0" t="s">
+        <v>118</v>
+      </c>
       <c r="T9" s="2"/>
-      <c r="U9" s="7"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -3642,7 +4764,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="7"/>
+      <c r="U10" s="6"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -3669,7 +4791,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="7"/>
+      <c r="U11" s="6"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -3696,7 +4818,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="7"/>
+      <c r="U12" s="6"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3723,7 +4845,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="7"/>
+      <c r="U13" s="6"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3750,7 +4872,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="7"/>
+      <c r="U14" s="6"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3777,7 +4899,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="7"/>
+      <c r="U15" s="6"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3804,7 +4926,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="7"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3831,7 +4953,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="7"/>
+      <c r="U17" s="6"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -3858,7 +4980,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="7"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -3885,7 +5007,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="7"/>
+      <c r="U19" s="6"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -3912,7 +5034,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="7"/>
+      <c r="U20" s="6"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -3939,7 +5061,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="7"/>
+      <c r="U21" s="6"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -3966,7 +5088,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="7"/>
+      <c r="U22" s="6"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -3993,7 +5115,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="7"/>
+      <c r="U23" s="6"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -4020,7 +5142,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="7"/>
+      <c r="U24" s="6"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -4047,7 +5169,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="7"/>
+      <c r="U25" s="6"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -4074,7 +5196,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="7"/>
+      <c r="U26" s="6"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -4101,7 +5223,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="7"/>
+      <c r="U27" s="6"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -4128,7 +5250,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="7"/>
+      <c r="U28" s="6"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -4155,7 +5277,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="7"/>
+      <c r="U29" s="6"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -4182,7 +5304,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="7"/>
+      <c r="U30" s="6"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -4209,7 +5331,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="7"/>
+      <c r="U31" s="6"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -4236,7 +5358,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="7"/>
+      <c r="U32" s="6"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -4263,7 +5385,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="7"/>
+      <c r="U33" s="6"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -4290,7 +5412,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="7"/>
+      <c r="U34" s="6"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
@@ -4317,7 +5439,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="7"/>
+      <c r="U35" s="6"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -4344,7 +5466,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="7"/>
+      <c r="U36" s="6"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -4371,7 +5493,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="7"/>
+      <c r="U37" s="6"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -4398,7 +5520,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="7"/>
+      <c r="U38" s="6"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -4425,7 +5547,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="7"/>
+      <c r="U39" s="6"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -4452,7 +5574,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="7"/>
+      <c r="U40" s="6"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -4479,7 +5601,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="7"/>
+      <c r="U41" s="6"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -4506,7 +5628,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="7"/>
+      <c r="U42" s="6"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -4533,7 +5655,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-      <c r="U43" s="7"/>
+      <c r="U43" s="6"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -4560,7 +5682,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="7"/>
+      <c r="U44" s="6"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -4587,7 +5709,7 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
-      <c r="U45" s="7"/>
+      <c r="U45" s="6"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
@@ -4614,7 +5736,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="7"/>
+      <c r="U46" s="6"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -4641,7 +5763,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-      <c r="U47" s="7"/>
+      <c r="U47" s="6"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
@@ -4668,7 +5790,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-      <c r="U48" s="7"/>
+      <c r="U48" s="6"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -4695,7 +5817,7 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-      <c r="U49" s="7"/>
+      <c r="U49" s="6"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
@@ -4722,7 +5844,7 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-      <c r="U50" s="7"/>
+      <c r="U50" s="6"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
@@ -4749,7 +5871,7 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-      <c r="U51" s="7"/>
+      <c r="U51" s="6"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
@@ -4776,7 +5898,7 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-      <c r="U52" s="7"/>
+      <c r="U52" s="6"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
@@ -4803,7 +5925,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="7"/>
+      <c r="U53" s="6"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
@@ -4830,7 +5952,7 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-      <c r="U54" s="7"/>
+      <c r="U54" s="6"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
@@ -4857,7 +5979,7 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-      <c r="U55" s="7"/>
+      <c r="U55" s="6"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
@@ -4884,7 +6006,7 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-      <c r="U56" s="7"/>
+      <c r="U56" s="6"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
@@ -4911,7 +6033,7 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-      <c r="U57" s="7"/>
+      <c r="U57" s="6"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
@@ -4938,7 +6060,7 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-      <c r="U58" s="7"/>
+      <c r="U58" s="6"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
@@ -4965,7 +6087,7 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-      <c r="U59" s="7"/>
+      <c r="U59" s="6"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
@@ -4992,7 +6114,7 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-      <c r="U60" s="7"/>
+      <c r="U60" s="6"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
@@ -5019,7 +6141,7 @@
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
-      <c r="U61" s="7"/>
+      <c r="U61" s="6"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
@@ -5046,7 +6168,7 @@
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
-      <c r="U62" s="7"/>
+      <c r="U62" s="6"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
@@ -5073,7 +6195,7 @@
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
-      <c r="U63" s="7"/>
+      <c r="U63" s="6"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
@@ -5100,7 +6222,7 @@
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
-      <c r="U64" s="7"/>
+      <c r="U64" s="6"/>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
@@ -5127,7 +6249,7 @@
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
-      <c r="U65" s="8"/>
+      <c r="U65" s="7"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
@@ -5162,157 +6284,157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5362,17 +6484,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>117</v>
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="18"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -5380,17 +6502,17 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="18"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -5398,17 +6520,17 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>122</v>
+      <c r="B3" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="18"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -5417,16 +6539,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -5435,13 +6557,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="18"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -5455,19 +6577,19 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
@@ -5494,7 +6616,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -5548,157 +6670,157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5741,156 +6863,156 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="9" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="9" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="B4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>80</v>
+      <c r="A8" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,6 +31,14 @@
     <sheet name="Talk mutually-exclusive-talks tag 3" sheetId="21" state="visible" r:id="rId22"/>
     <sheet name="Talk mutually-exclusive-talks tag 4" sheetId="22" state="visible" r:id="rId23"/>
     <sheet name="Talk mutually-exclusive-talks tag 5" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="Talk prerequisite talks" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="Talk prerequisite talks 2" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="Talk prerequisite talks 3" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="Talk prerequisite talks 4" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="Talk prerequisite talks 5" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="Talk prerequisite talks 6" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="Talk prerequisite talks 7" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="Talk prerequisite talks 8" sheetId="31" state="visible" r:id="rId32"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -42,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="153">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -266,6 +274,9 @@
     <t xml:space="preserve">11:00</t>
   </si>
   <si>
+    <t xml:space="preserve">12:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
@@ -407,6 +418,43 @@
     <t xml:space="preserve">RedHat talk 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Talk with Normal talk as prerequisite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with Normal talk and Normal talk 2 as prerequisites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal talk, Normal talk2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Talk with (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Talk with Normal talk as prerequisite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) as a prerequisite</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Constraint package</t>
   </si>
   <si>
@@ -477,6 +525,15 @@
   </si>
   <si>
     <t xml:space="preserve">-3hard/0soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk scheduled after its prerequisites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:00-12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk scheduled before its prerequisites</t>
   </si>
 </sst>
 </file>
@@ -487,7 +544,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -515,6 +572,11 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -634,7 +696,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -658,11 +720,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -755,7 +817,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1176,10 +1238,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1194,7 +1256,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>39</v>
@@ -1215,7 +1277,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1230,10 +1292,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1280,16 +1342,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1303,14 +1365,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -1371,10 +1433,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1389,7 +1451,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>39</v>
@@ -1410,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1425,10 +1487,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1475,16 +1537,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1498,13 +1560,13 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -1565,10 +1627,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1583,7 +1645,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>39</v>
@@ -1604,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1619,10 +1681,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1669,16 +1731,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1692,10 +1754,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -1709,11 +1771,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
@@ -1774,10 +1836,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1792,7 +1854,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>41</v>
@@ -1813,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1828,10 +1890,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1878,16 +1940,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1901,10 +1963,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
@@ -1966,10 +2028,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1984,7 +2046,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>41</v>
@@ -2005,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2020,10 +2082,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2070,16 +2132,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2093,11 +2155,11 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
@@ -2159,10 +2221,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2177,7 +2239,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>41</v>
@@ -2198,7 +2260,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2213,10 +2275,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2263,16 +2325,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2286,10 +2348,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
@@ -2351,10 +2413,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2369,7 +2431,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>41</v>
@@ -2390,7 +2452,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2405,10 +2467,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2455,16 +2517,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2478,10 +2540,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
@@ -2543,10 +2605,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2561,7 +2623,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>41</v>
@@ -2582,7 +2644,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2597,10 +2659,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2647,16 +2709,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2670,14 +2732,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -2738,10 +2800,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2756,7 +2818,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>43</v>
@@ -2777,7 +2839,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2792,10 +2854,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2842,16 +2904,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2865,10 +2927,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -2882,11 +2944,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
@@ -2947,10 +3009,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2965,7 +3027,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>57</v>
@@ -2986,7 +3048,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3001,10 +3063,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -3051,16 +3113,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -3074,13 +3136,13 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -3127,7 +3189,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3201,7 +3263,20 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3254,10 +3329,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -3272,7 +3347,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>57</v>
@@ -3293,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3308,10 +3383,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -3358,16 +3433,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -3381,10 +3456,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="15"/>
@@ -3399,10 +3474,10 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -3464,10 +3539,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -3482,7 +3557,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>57</v>
@@ -3503,7 +3578,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3518,10 +3593,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -3568,16 +3643,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -3591,10 +3666,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -3610,11 +3685,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
@@ -3675,10 +3750,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -3693,7 +3768,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>57</v>
@@ -3714,7 +3789,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3729,10 +3804,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -3779,16 +3854,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -3802,14 +3877,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -3823,11 +3898,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
@@ -3870,7 +3945,7 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -3888,10 +3963,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -3906,7 +3981,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>57</v>
@@ -3927,7 +4002,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3942,10 +4017,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -3992,16 +4067,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -4015,10 +4090,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -4034,11 +4109,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
@@ -4053,12 +4128,1216 @@
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
+      <c r="B9" s="15"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B10" activeCellId="0" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:E6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4118,7 +5397,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>64</v>
@@ -4127,18 +5406,18 @@
         <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>69</v>
@@ -4150,7 +5429,7 @@
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>69</v>
@@ -4162,7 +5441,7 @@
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>69</v>
@@ -4174,7 +5453,7 @@
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>69</v>
@@ -4187,6 +5466,396 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="8" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="8" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4250,40 +5919,40 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -4291,7 +5960,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4310,7 +5979,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4329,7 +5998,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4348,7 +6017,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4388,11 +6057,11 @@
   <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4426,70 +6095,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>62</v>
@@ -4498,19 +6167,19 @@
         <v>63</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -4536,14 +6205,14 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -4569,14 +6238,14 @@
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -4602,14 +6271,14 @@
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4635,14 +6304,14 @@
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4668,7 +6337,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -4690,7 +6359,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="6"/>
@@ -4701,18 +6370,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
@@ -4734,7 +6403,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="6"/>
@@ -4743,10 +6412,14 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -4763,17 +6436,23 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="T10" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="U10" s="6"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
+    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -4790,17 +6469,23 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="T11" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="U11" s="6"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
+    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4817,7 +6502,9 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="T12" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="U12" s="6"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -6292,10 +7979,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -6310,7 +7997,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -6331,7 +8018,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -6346,10 +8033,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -6396,16 +8083,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -6419,10 +8106,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -6485,10 +8172,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -6503,7 +8190,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>33</v>
@@ -6524,7 +8211,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -6539,10 +8226,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -6589,16 +8276,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -6612,11 +8299,11 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -6678,10 +8365,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -6696,7 +8383,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>37</v>
@@ -6717,7 +8404,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -6732,10 +8419,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -6782,16 +8469,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -6805,10 +8492,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -6871,10 +8558,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -6889,7 +8576,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>37</v>
@@ -6910,7 +8597,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -6925,10 +8612,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -6975,16 +8662,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -6998,10 +8685,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="30"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="153">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -289,6 +289,9 @@
     <t xml:space="preserve">10:00-11:00</t>
   </si>
   <si>
+    <t xml:space="preserve">11:00-12:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Normal room</t>
   </si>
   <si>
@@ -424,7 +427,7 @@
     <t xml:space="preserve">Talk with Normal talk and Normal talk 2 as prerequisites</t>
   </si>
   <si>
-    <t xml:space="preserve">Normal talk, Normal talk2</t>
+    <t xml:space="preserve">Normal talk, Normal talk 2</t>
   </si>
   <si>
     <r>
@@ -528,9 +531,6 @@
   </si>
   <si>
     <t xml:space="preserve">Talk scheduled after its prerequisites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:00-12:00</t>
   </si>
   <si>
     <t xml:space="preserve">Talk scheduled before its prerequisites</t>
@@ -1238,10 +1238,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>39</v>
@@ -1277,7 +1277,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -1365,14 +1365,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -1433,10 +1433,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>39</v>
@@ -1472,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1487,10 +1487,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -1560,13 +1560,13 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -1627,10 +1627,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>39</v>
@@ -1666,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -1754,10 +1754,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -1771,11 +1771,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
@@ -1836,10 +1836,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>41</v>
@@ -1875,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
@@ -2028,10 +2028,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>41</v>
@@ -2067,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2082,10 +2082,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -2155,11 +2155,11 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
@@ -2221,10 +2221,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>41</v>
@@ -2260,7 +2260,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2275,10 +2275,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -2348,10 +2348,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
@@ -2413,10 +2413,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>41</v>
@@ -2452,7 +2452,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -2540,10 +2540,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
@@ -2605,10 +2605,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>41</v>
@@ -2644,7 +2644,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -2732,14 +2732,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -2800,10 +2800,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>43</v>
@@ -2839,7 +2839,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2854,10 +2854,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -2944,11 +2944,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
@@ -3009,10 +3009,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>57</v>
@@ -3048,7 +3048,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3063,10 +3063,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -3136,13 +3136,13 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -3189,7 +3189,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3329,10 +3329,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>57</v>
@@ -3368,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3383,10 +3383,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="15"/>
@@ -3474,10 +3474,10 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -3539,10 +3539,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>57</v>
@@ -3578,7 +3578,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3593,10 +3593,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -3666,10 +3666,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -3685,11 +3685,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
@@ -3750,10 +3750,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>57</v>
@@ -3789,7 +3789,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3804,10 +3804,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -3877,14 +3877,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -3898,11 +3898,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
@@ -3963,10 +3963,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>57</v>
@@ -4002,7 +4002,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -4090,10 +4090,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -4109,11 +4109,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
@@ -4128,10 +4128,10 @@
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4181,10 +4181,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>59</v>
@@ -4220,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -4235,10 +4235,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -4308,14 +4308,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="20"/>
@@ -4392,10 +4392,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>59</v>
@@ -4431,7 +4431,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -4446,10 +4446,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -4519,14 +4519,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -4540,10 +4540,10 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="16"/>
@@ -4607,10 +4607,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>59</v>
@@ -4646,7 +4646,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -4661,10 +4661,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -4723,7 +4723,7 @@
         <v>78</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -4736,17 +4736,17 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -4806,10 +4806,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>59</v>
@@ -4860,10 +4860,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -4933,10 +4933,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -4999,10 +4999,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>59</v>
@@ -5053,10 +5053,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -5126,10 +5126,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -5192,10 +5192,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>59</v>
@@ -5246,10 +5246,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -5319,10 +5319,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -5364,14 +5364,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5380,8 +5380,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="7" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="8" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -5394,8 +5394,9 @@
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -5414,10 +5415,13 @@
       <c r="F2" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>69</v>
@@ -5429,7 +5433,7 @@
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>69</v>
@@ -5441,7 +5445,7 @@
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>69</v>
@@ -5453,7 +5457,7 @@
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>69</v>
@@ -5465,7 +5469,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D1:G1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5503,10 +5507,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -5521,7 +5525,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>59</v>
@@ -5557,10 +5561,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -5607,7 +5611,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -5630,14 +5634,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -5680,12 +5684,12 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5698,10 +5702,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -5716,7 +5720,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>59</v>
@@ -5752,10 +5756,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -5802,7 +5806,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -5825,14 +5829,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -5879,7 +5883,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N12" activeCellId="0" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5922,28 +5926,28 @@
         <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>76</v>
@@ -5954,13 +5958,15 @@
       <c r="L2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5979,7 +5985,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5998,7 +6004,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -6017,7 +6023,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -6035,9 +6041,8 @@
       <c r="O6" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
+  <mergeCells count="1">
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6056,12 +6061,12 @@
   </sheetPr>
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="T12" activeCellId="0" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6095,70 +6100,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>62</v>
@@ -6167,19 +6172,19 @@
         <v>63</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -6205,14 +6210,14 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -6238,14 +6243,14 @@
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -6271,14 +6276,14 @@
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -6304,14 +6309,14 @@
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6337,7 +6342,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -6359,7 +6364,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="6"/>
@@ -6370,18 +6375,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
@@ -6403,7 +6408,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="6"/>
@@ -6414,7 +6419,7 @@
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
@@ -6437,7 +6442,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="2"/>
@@ -6447,7 +6452,7 @@
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
@@ -6470,7 +6475,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="2"/>
@@ -6480,7 +6485,7 @@
     </row>
     <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
@@ -6503,7 +6508,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="2"/>
@@ -7979,10 +7984,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -7997,7 +8002,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -8018,7 +8023,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -8033,10 +8038,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -8083,7 +8088,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -8106,10 +8111,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -8172,10 +8177,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -8190,7 +8195,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>33</v>
@@ -8211,7 +8216,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -8226,10 +8231,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -8276,7 +8281,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>76</v>
@@ -8299,11 +8304,11 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -8365,10 +8370,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -8383,7 +8388,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>37</v>
@@ -8404,7 +8409,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -8419,10 +8424,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -8469,7 +8474,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -8492,10 +8497,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -8558,10 +8563,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -8576,7 +8581,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>37</v>
@@ -8597,7 +8602,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -8612,10 +8617,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -8662,7 +8667,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>76</v>
@@ -8685,10 +8690,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="35"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,6 +44,11 @@
     <sheet name="Same day talks 3" sheetId="34" state="visible" r:id="rId35"/>
     <sheet name="Same day talks 4" sheetId="35" state="visible" r:id="rId36"/>
     <sheet name="Same day talks 5" sheetId="36" state="visible" r:id="rId37"/>
+    <sheet name="Popular talks 1" sheetId="37" state="visible" r:id="rId38"/>
+    <sheet name="Popular talks 2" sheetId="38" state="visible" r:id="rId39"/>
+    <sheet name="Popular talks 3" sheetId="39" state="visible" r:id="rId40"/>
+    <sheet name="Popular talks 4" sheetId="40" state="visible" r:id="rId41"/>
+    <sheet name="Popular talks 5" sheetId="41" state="visible" r:id="rId42"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -55,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="186">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -162,6 +167,12 @@
     <t xml:space="preserve">Soft penalty per common content/theme of 2 talks that are scheduled on different days</t>
   </si>
   <si>
+    <t xml:space="preserve">Popular talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft penalty per 2 talks where the less popular one (has lower number of likes) is assigned a larger room than the more popular talk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Talk type of timeslot</t>
   </si>
   <si>
@@ -294,6 +305,9 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Capacity</t>
+  </si>
+  <si>
     <t xml:space="preserve">09:00-10:00</t>
   </si>
   <si>
@@ -318,6 +332,15 @@
     <t xml:space="preserve">Unavailable room</t>
   </si>
   <si>
+    <t xml:space="preserve">Room with capacity 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room with capacity 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room with capacity 200</t>
+  </si>
+  <si>
     <t xml:space="preserve">Required timeslot tags</t>
   </si>
   <si>
@@ -388,6 +411,12 @@
   </si>
   <si>
     <t xml:space="preserve">Prerequisite talks codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of likes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crowd control risk</t>
   </si>
   <si>
     <t xml:space="preserve">Pinned by user</t>
@@ -514,6 +543,15 @@
       </rPr>
       <t xml:space="preserve">) as a prerequisite</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with 5 likes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with 10 likes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with 20 likes</t>
   </si>
   <si>
     <t xml:space="preserve">Constraint package</t>
@@ -678,6 +716,95 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">soft</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Talks with different popularity in same room</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hard/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">soft</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Less popular talks in smaller rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One less popular talk in a bigger room than a more popular talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two less popular talk in a bigger room than a more popular talk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hard/-2soft</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Three less popular talk in a bigger room than a more popular talk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hard/-3soft</t>
     </r>
   </si>
 </sst>
@@ -976,7 +1103,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1193,14 +1320,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B21" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1289,12 +1416,12 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>1</v>
@@ -1305,13 +1432,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,12 +1460,12 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>1</v>
@@ -1349,13 +1476,13 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,7 +1496,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1408,10 +1545,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -1426,10 +1563,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1447,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1462,10 +1599,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1496,7 +1633,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1512,16 +1649,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1535,14 +1672,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -1603,10 +1740,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -1621,10 +1758,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1642,7 +1779,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1657,10 +1794,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1691,7 +1828,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1707,16 +1844,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1730,13 +1867,13 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -1797,10 +1934,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -1815,10 +1952,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1836,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1851,10 +1988,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1885,7 +2022,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1901,16 +2038,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1924,10 +2061,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -1941,11 +2078,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="17"/>
@@ -2006,10 +2143,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2024,10 +2161,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2045,7 +2182,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2060,10 +2197,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2094,7 +2231,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2110,16 +2247,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2133,10 +2270,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>
@@ -2198,10 +2335,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2216,10 +2353,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2237,7 +2374,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2252,10 +2389,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2286,7 +2423,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2302,16 +2439,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2325,11 +2462,11 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>
@@ -2391,10 +2528,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2409,10 +2546,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2430,7 +2567,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2445,10 +2582,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2479,7 +2616,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2495,16 +2632,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2518,10 +2655,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>
@@ -2583,10 +2720,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2601,10 +2738,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2622,7 +2759,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2637,10 +2774,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2671,7 +2808,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2687,16 +2824,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2710,10 +2847,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>
@@ -2775,10 +2912,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2793,10 +2930,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2814,7 +2951,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2829,10 +2966,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2863,7 +3000,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2879,16 +3016,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2902,14 +3039,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="18" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -2970,10 +3107,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2988,10 +3125,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3009,7 +3146,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -3024,10 +3161,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3058,7 +3195,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3074,16 +3211,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3097,10 +3234,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -3114,11 +3251,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="18" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="17"/>
@@ -3179,10 +3316,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -3197,10 +3334,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3218,7 +3355,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -3233,10 +3370,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3267,7 +3404,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3283,16 +3420,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3306,13 +3443,13 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -3373,92 +3510,92 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3512,10 +3649,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -3530,10 +3667,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3551,7 +3688,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -3566,10 +3703,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3600,7 +3737,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3616,16 +3753,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3639,10 +3776,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="17"/>
@@ -3657,10 +3794,10 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -3722,10 +3859,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -3740,10 +3877,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3761,7 +3898,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -3776,10 +3913,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3810,7 +3947,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3826,16 +3963,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3849,10 +3986,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -3868,11 +4005,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="22" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="17"/>
@@ -3933,10 +4070,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -3951,10 +4088,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3972,7 +4109,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -3987,10 +4124,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4021,7 +4158,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -4037,16 +4174,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -4060,14 +4197,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="18" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -4081,11 +4218,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="22" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="17"/>
@@ -4146,10 +4283,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4164,10 +4301,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4185,7 +4322,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4200,10 +4337,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4234,7 +4371,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -4250,16 +4387,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -4273,10 +4410,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -4292,11 +4429,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="22" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="17"/>
@@ -4311,10 +4448,10 @@
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4364,10 +4501,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4382,10 +4519,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4403,7 +4540,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4418,10 +4555,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4452,7 +4589,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -4468,16 +4605,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -4491,14 +4628,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="18" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -4512,7 +4649,7 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="22"/>
@@ -4575,10 +4712,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4593,10 +4730,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4614,7 +4751,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4629,10 +4766,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4663,7 +4800,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -4679,16 +4816,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -4702,14 +4839,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -4723,10 +4860,10 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="18"/>
@@ -4790,10 +4927,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4808,10 +4945,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4829,7 +4966,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4844,10 +4981,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4878,7 +5015,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -4894,19 +5031,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -4919,17 +5056,17 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -4976,7 +5113,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4989,10 +5126,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -5007,10 +5144,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5028,7 +5165,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5043,10 +5180,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5077,7 +5214,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -5093,16 +5230,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5116,10 +5253,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -5182,10 +5319,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -5200,10 +5337,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5221,7 +5358,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5236,10 +5373,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5270,7 +5407,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -5286,16 +5423,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5309,10 +5446,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -5375,10 +5512,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -5393,10 +5530,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5414,7 +5551,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5429,10 +5566,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5463,7 +5600,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -5479,16 +5616,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5502,10 +5639,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -5547,119 +5684,161 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="9" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1016" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="4"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
-        <v>77</v>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5697,10 +5876,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -5715,10 +5894,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5736,7 +5915,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5751,10 +5930,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5785,7 +5964,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -5801,16 +5980,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5824,14 +6003,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -5892,10 +6071,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -5910,10 +6089,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5931,7 +6110,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5946,10 +6125,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5980,7 +6159,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -5996,16 +6175,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6019,14 +6198,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -6087,10 +6266,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -6105,7 +6284,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>33</v>
@@ -6126,7 +6305,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6141,10 +6320,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6175,7 +6354,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -6191,16 +6370,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6214,14 +6393,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -6282,10 +6461,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -6300,7 +6479,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>33</v>
@@ -6321,7 +6500,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6336,10 +6515,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6370,12 +6549,12 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -6388,19 +6567,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -6413,15 +6592,15 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -6464,11 +6643,11 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6481,10 +6660,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -6499,7 +6678,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>33</v>
@@ -6520,7 +6699,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6535,10 +6714,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6569,12 +6748,12 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -6587,19 +6766,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -6612,15 +6791,15 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -6680,10 +6859,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -6698,7 +6877,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>33</v>
@@ -6719,7 +6898,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6734,10 +6913,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6768,12 +6947,12 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -6786,19 +6965,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -6811,15 +6990,15 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -6861,7 +7040,7 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -6879,10 +7058,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -6897,7 +7076,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>33</v>
@@ -6918,7 +7097,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6933,10 +7112,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6967,12 +7146,12 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -6985,19 +7164,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -7010,15 +7189,15 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -7031,6 +7210,643 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7096,64 +7912,64 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="O2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7172,7 +7988,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -7191,7 +8007,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -7210,7 +8026,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -7230,6 +8046,442 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7246,14 +8498,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="U16" activeCellId="0" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7277,110 +8529,116 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="6.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -7393,31 +8651,33 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="9"/>
+      <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="W2" s="9"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -7430,22 +8690,24 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="9"/>
+      <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="W3" s="9"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -7463,22 +8725,24 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="9"/>
+      <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
+      <c r="W4" s="9"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -7496,22 +8760,24 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="9"/>
+      <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
+      <c r="W5" s="9"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -7529,29 +8795,31 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="9"/>
+      <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
+      <c r="W6" s="9"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -7563,41 +8831,43 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="T7" s="2"/>
-      <c r="U7" s="9"/>
+      <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
+      <c r="W7" s="9"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -7613,22 +8883,24 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="T9" s="2"/>
-      <c r="U9" s="9"/>
+      <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
+      <c r="W9" s="9"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7647,21 +8919,23 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="U10" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
+      <c r="W10" s="9"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -7680,21 +8954,23 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="U11" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
+      <c r="W11" s="9"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -7713,18 +8989,24 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="U12" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
+      <c r="W12" s="9"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -7742,16 +9024,24 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="9"/>
+      <c r="U13" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
+      <c r="W13" s="9"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -7769,16 +9059,24 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="9"/>
+      <c r="U14" s="2" t="n">
+        <v>10</v>
+      </c>
       <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
+      <c r="W14" s="9"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -7796,38 +9094,15 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="9"/>
+      <c r="U15" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
+      <c r="W15" s="9"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
@@ -7850,11 +9125,13 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="9"/>
+      <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
+      <c r="W17" s="9"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
@@ -7877,11 +9154,13 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="9"/>
+      <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
+      <c r="W18" s="9"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
@@ -7904,11 +9183,13 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="9"/>
+      <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
+      <c r="W19" s="9"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
@@ -7931,11 +9212,13 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="9"/>
+      <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
+      <c r="W20" s="9"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
@@ -7958,11 +9241,13 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="9"/>
+      <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
+      <c r="W21" s="9"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
@@ -7985,11 +9270,13 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="9"/>
+      <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="W22" s="9"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
@@ -8012,11 +9299,13 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="9"/>
+      <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
+      <c r="W23" s="9"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
@@ -8039,11 +9328,13 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="9"/>
+      <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
+      <c r="W24" s="9"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
@@ -8066,11 +9357,13 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="9"/>
+      <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
+      <c r="W25" s="9"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
@@ -8093,11 +9386,13 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="9"/>
+      <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
+      <c r="W26" s="9"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
@@ -8120,11 +9415,13 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="9"/>
+      <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
+      <c r="W27" s="9"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
@@ -8147,11 +9444,13 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="9"/>
+      <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
+      <c r="W28" s="9"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
@@ -8174,11 +9473,13 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="9"/>
+      <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
+      <c r="W29" s="9"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
@@ -8201,11 +9502,13 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="9"/>
+      <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
+      <c r="W30" s="9"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
@@ -8228,11 +9531,13 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="9"/>
+      <c r="U31" s="2"/>
       <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
+      <c r="W31" s="9"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
@@ -8255,11 +9560,13 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="9"/>
+      <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
+      <c r="W32" s="9"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
@@ -8282,11 +9589,13 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="9"/>
+      <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
+      <c r="W33" s="9"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
@@ -8309,11 +9618,13 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="9"/>
+      <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
+      <c r="W34" s="9"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
@@ -8336,11 +9647,13 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="9"/>
+      <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
+      <c r="W35" s="9"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
@@ -8363,11 +9676,13 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="9"/>
+      <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
+      <c r="W36" s="9"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
@@ -8390,11 +9705,13 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="9"/>
+      <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
+      <c r="W37" s="9"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
@@ -8417,11 +9734,13 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="9"/>
+      <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
+      <c r="W38" s="9"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
@@ -8444,11 +9763,13 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="9"/>
+      <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
+      <c r="W39" s="9"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
@@ -8471,11 +9792,13 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="9"/>
+      <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
+      <c r="W40" s="9"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
@@ -8498,11 +9821,13 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="9"/>
+      <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
+      <c r="W41" s="9"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
@@ -8525,11 +9850,13 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="9"/>
+      <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
+      <c r="W42" s="9"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
@@ -8552,11 +9879,13 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-      <c r="U43" s="9"/>
+      <c r="U43" s="2"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
+      <c r="W43" s="9"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
@@ -8579,11 +9908,13 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="9"/>
+      <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
+      <c r="W44" s="9"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
@@ -8606,11 +9937,13 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
-      <c r="U45" s="9"/>
+      <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
+      <c r="W45" s="9"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
@@ -8633,11 +9966,13 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="9"/>
+      <c r="U46" s="2"/>
       <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
+      <c r="W46" s="9"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
@@ -8660,11 +9995,13 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-      <c r="U47" s="9"/>
+      <c r="U47" s="2"/>
       <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
+      <c r="W47" s="9"/>
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
@@ -8687,11 +10024,13 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-      <c r="U48" s="9"/>
+      <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
+      <c r="W48" s="9"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
@@ -8714,11 +10053,13 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-      <c r="U49" s="9"/>
+      <c r="U49" s="2"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
+      <c r="W49" s="9"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
@@ -8741,11 +10082,13 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-      <c r="U50" s="9"/>
+      <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
+      <c r="W50" s="9"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
@@ -8768,11 +10111,13 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-      <c r="U51" s="9"/>
+      <c r="U51" s="2"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
+      <c r="W51" s="9"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
@@ -8795,11 +10140,13 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-      <c r="U52" s="9"/>
+      <c r="U52" s="2"/>
       <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
+      <c r="W52" s="9"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
@@ -8822,11 +10169,13 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="9"/>
+      <c r="U53" s="2"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
+      <c r="W53" s="9"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
@@ -8849,11 +10198,13 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-      <c r="U54" s="9"/>
+      <c r="U54" s="2"/>
       <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
+      <c r="W54" s="9"/>
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
@@ -8876,11 +10227,13 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-      <c r="U55" s="9"/>
+      <c r="U55" s="2"/>
       <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
+      <c r="W55" s="9"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
@@ -8903,11 +10256,13 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-      <c r="U56" s="9"/>
+      <c r="U56" s="2"/>
       <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
+      <c r="W56" s="9"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
@@ -8930,11 +10285,13 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-      <c r="U57" s="9"/>
+      <c r="U57" s="2"/>
       <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
+      <c r="W57" s="9"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
@@ -8957,11 +10314,13 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-      <c r="U58" s="9"/>
+      <c r="U58" s="2"/>
       <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
+      <c r="W58" s="9"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
@@ -8984,11 +10343,13 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-      <c r="U59" s="9"/>
+      <c r="U59" s="2"/>
       <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
+      <c r="W59" s="9"/>
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
@@ -9011,11 +10372,13 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-      <c r="U60" s="9"/>
+      <c r="U60" s="2"/>
       <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
+      <c r="W60" s="9"/>
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
@@ -9038,11 +10401,13 @@
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
-      <c r="U61" s="9"/>
+      <c r="U61" s="2"/>
       <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
+      <c r="W61" s="9"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
@@ -9065,11 +10430,13 @@
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
-      <c r="U62" s="9"/>
+      <c r="U62" s="2"/>
       <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
+      <c r="W62" s="9"/>
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
@@ -9092,11 +10459,13 @@
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
-      <c r="U63" s="9"/>
+      <c r="U63" s="2"/>
       <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
+      <c r="W63" s="9"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
@@ -9119,11 +10488,13 @@
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
-      <c r="U64" s="9"/>
+      <c r="U64" s="2"/>
       <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
+      <c r="W64" s="9"/>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
@@ -9146,11 +10517,13 @@
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
-      <c r="U65" s="10"/>
+      <c r="U65" s="2"/>
       <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
+      <c r="W65" s="10"/>
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9189,10 +10562,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -9207,10 +10580,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -9228,7 +10601,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -9243,10 +10616,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -9277,7 +10650,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -9293,16 +10666,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -9316,10 +10689,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
@@ -9382,10 +10755,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -9400,10 +10773,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -9421,7 +10794,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -9436,10 +10809,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -9470,7 +10843,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -9486,16 +10859,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -9509,11 +10882,11 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -9575,10 +10948,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -9593,10 +10966,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -9614,7 +10987,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -9629,10 +11002,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -9663,7 +11036,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -9679,16 +11052,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -9702,10 +11075,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
@@ -9768,10 +11141,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -9786,10 +11159,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -9807,7 +11180,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -9822,10 +11195,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -9856,7 +11229,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -9872,16 +11245,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -9895,10 +11268,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="187">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -125,40 +125,40 @@
     <t xml:space="preserve">Soft reward per 2 talks that have the same timeslot and a different language</t>
   </si>
   <si>
-    <t xml:space="preserve">Speaker preferred timeslot tag</t>
+    <t xml:space="preserve">Speaker preferred timeslot tags</t>
   </si>
   <si>
     <t xml:space="preserve">Soft penalty per missing preferred tag in a talk's timeslot</t>
   </si>
   <si>
-    <t xml:space="preserve">Speaker undesired timeslot tag</t>
+    <t xml:space="preserve">Speaker undesired timeslot tags</t>
   </si>
   <si>
     <t xml:space="preserve">Soft penalty per undesired tag in a talk's timeslot</t>
   </si>
   <si>
-    <t xml:space="preserve">Talk preferred timeslot tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk undesired timeslot tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaker preferred room tag</t>
+    <t xml:space="preserve">Talk preferred timeslot tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk undesired timeslot tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker preferred room tags</t>
   </si>
   <si>
     <t xml:space="preserve">Soft penalty per missing preferred tag in a talk's room</t>
   </si>
   <si>
-    <t xml:space="preserve">Speaker undesired room tag</t>
+    <t xml:space="preserve">Speaker undesired room tags</t>
   </si>
   <si>
     <t xml:space="preserve">Soft penalty per undesired tag in a talk's room</t>
   </si>
   <si>
-    <t xml:space="preserve">Talk preferred room tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk undesired room tag</t>
+    <t xml:space="preserve">Talk preferred room tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk undesired room tags</t>
   </si>
   <si>
     <t xml:space="preserve">Same day talks</t>
@@ -209,43 +209,43 @@
     <t xml:space="preserve">Hard penalty per pair of talks with the same speaker in overlapping timeslots</t>
   </si>
   <si>
-    <t xml:space="preserve">Speaker required timeslot tag</t>
+    <t xml:space="preserve">Speaker required timeslot tags</t>
   </si>
   <si>
     <t xml:space="preserve">Hard penalty per missing required tag in a talk's timeslot</t>
   </si>
   <si>
-    <t xml:space="preserve">Speaker prohibited timeslot tag</t>
+    <t xml:space="preserve">Speaker prohibited timeslot tags</t>
   </si>
   <si>
     <t xml:space="preserve">Hard penalty per prohibited tag in a talk's timeslot</t>
   </si>
   <si>
-    <t xml:space="preserve">Talk required timeslot tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk prohibited timeslot tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaker required room tag</t>
+    <t xml:space="preserve">Talk required timeslot tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker required room tags</t>
   </si>
   <si>
     <t xml:space="preserve">Hard penalty per missing required tag in a talk's room</t>
   </si>
   <si>
-    <t xml:space="preserve">Speaker prohibited room tag</t>
+    <t xml:space="preserve">Speaker prohibited room tags</t>
   </si>
   <si>
     <t xml:space="preserve">Hard penalty per prohibited tag in a talk's room</t>
   </si>
   <si>
-    <t xml:space="preserve">Talk required room tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk prohibited room tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk mutually-exclusive-talks tag</t>
+    <t xml:space="preserve">Talk required room tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk prohibited room tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk mutually-exclusive-talks tags</t>
   </si>
   <si>
     <t xml:space="preserve">Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
@@ -606,6 +606,9 @@
   </si>
   <si>
     <t xml:space="preserve">Speaker has conflicting timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk mutually-exclusive-talks tag</t>
   </si>
   <si>
     <t xml:space="preserve">Mutually exclusive talks in non-overlapping timeslots</t>
@@ -1098,12 +1101,12 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3337,7 +3340,7 @@
         <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3355,7 +3358,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -3670,7 +3673,7 @@
         <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3688,7 +3691,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -3880,7 +3883,7 @@
         <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3898,7 +3901,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4091,7 +4094,7 @@
         <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4109,7 +4112,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4127,7 +4130,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4304,7 +4307,7 @@
         <v>147</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4322,7 +4325,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4340,7 +4343,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4540,7 +4543,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4751,7 +4754,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4966,7 +4969,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5165,7 +5168,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5358,7 +5361,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5376,7 +5379,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5551,7 +5554,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5915,7 +5918,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6110,7 +6113,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6305,7 +6308,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6500,7 +6503,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6699,7 +6702,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6717,7 +6720,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6898,7 +6901,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6916,7 +6919,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7097,7 +7100,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7115,7 +7118,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7296,7 +7299,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7314,7 +7317,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7497,7 +7500,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7515,7 +7518,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7715,7 +7718,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7733,7 +7736,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8122,7 +8125,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8140,7 +8143,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8340,7 +8343,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8358,7 +8361,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8500,10 +8503,10 @@
   </sheetPr>
   <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="U16" activeCellId="0" sqref="U16"/>
     </sheetView>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,6 +49,11 @@
     <sheet name="Popular talks 3" sheetId="39" state="visible" r:id="rId40"/>
     <sheet name="Popular talks 4" sheetId="40" state="visible" r:id="rId41"/>
     <sheet name="Popular talks 5" sheetId="41" state="visible" r:id="rId42"/>
+    <sheet name="Crowd control" sheetId="42" state="visible" r:id="rId43"/>
+    <sheet name="Crowd control 2" sheetId="43" state="visible" r:id="rId44"/>
+    <sheet name="Crowd control 3" sheetId="44" state="visible" r:id="rId45"/>
+    <sheet name="Crowd control 4" sheetId="45" state="visible" r:id="rId46"/>
+    <sheet name="Crowd control 5" sheetId="46" state="visible" r:id="rId47"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -60,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="199">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -171,6 +176,12 @@
   </si>
   <si>
     <t xml:space="preserve">Soft penalty per 2 talks where the less popular one (has lower number of likes) is assigned a larger room than the more popular talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crowd control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
   </si>
   <si>
     <t xml:space="preserve">Talk type of timeslot</t>
@@ -552,6 +563,18 @@
   </si>
   <si>
     <t xml:space="preserve">Talk with 20 likes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with 1 crowd control risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with 2 crowd control risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with 3 crowd control risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk2 with 3 crowd control risk</t>
   </si>
   <si>
     <t xml:space="preserve">Constraint package</t>
@@ -809,6 +832,57 @@
       </rPr>
       <t xml:space="preserve">hard/-3soft</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Single normal talk and a pair of talks with greater than zero crowd control risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three talks with greater than zero crowd control risk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hard/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">soft</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Single talk with greater than zero crowd control risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three single talks with greater than zero crowd control risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two pair of talks with greater than zero crowd control risk</t>
   </si>
 </sst>
 </file>
@@ -1099,14 +1173,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1334,14 +1408,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B22" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1430,12 +1504,12 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>1</v>
@@ -1446,13 +1520,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,12 +1548,12 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>1</v>
@@ -1490,13 +1564,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1510,7 +1584,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1548,10 +1632,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -1566,10 +1650,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1587,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1602,10 +1686,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1636,7 +1720,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1652,16 +1736,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1675,14 +1759,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -1743,10 +1827,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -1761,10 +1845,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1782,7 +1866,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1797,10 +1881,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1831,7 +1915,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1847,16 +1931,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1870,13 +1954,13 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -1937,10 +2021,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -1955,10 +2039,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1976,7 +2060,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1991,10 +2075,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2025,7 +2109,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2041,16 +2125,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2064,10 +2148,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -2081,11 +2165,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="17"/>
@@ -2146,10 +2230,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2164,10 +2248,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2185,7 +2269,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2200,10 +2284,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2234,7 +2318,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2250,16 +2334,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2273,10 +2357,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>
@@ -2338,10 +2422,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2356,10 +2440,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2377,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2392,10 +2476,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2426,7 +2510,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2442,16 +2526,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2465,11 +2549,11 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>
@@ -2531,10 +2615,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2549,10 +2633,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2570,7 +2654,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2585,10 +2669,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2619,7 +2703,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2635,16 +2719,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2658,10 +2742,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>
@@ -2723,10 +2807,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2741,10 +2825,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2762,7 +2846,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2777,10 +2861,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2811,7 +2895,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2827,16 +2911,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2850,10 +2934,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>
@@ -2915,10 +2999,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2933,10 +3017,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2954,7 +3038,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2969,10 +3053,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3003,7 +3087,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3019,16 +3103,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3042,14 +3126,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -3110,10 +3194,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -3128,10 +3212,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3149,7 +3233,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -3164,10 +3248,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3198,7 +3282,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3214,16 +3298,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3237,10 +3321,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -3254,11 +3338,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="17"/>
@@ -3319,10 +3403,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -3337,10 +3421,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3358,7 +3442,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -3373,10 +3457,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3407,7 +3491,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3423,16 +3507,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3446,13 +3530,13 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -3499,7 +3583,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3513,92 +3597,120 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>73</v>
+      <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3652,10 +3764,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -3670,10 +3782,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3691,7 +3803,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -3706,10 +3818,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3740,7 +3852,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3756,16 +3868,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3779,10 +3891,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="17"/>
@@ -3797,10 +3909,10 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -3862,10 +3974,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -3880,10 +3992,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3901,7 +4013,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -3916,10 +4028,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3950,7 +4062,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3966,16 +4078,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3989,10 +4101,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -4008,11 +4120,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="17"/>
@@ -4073,10 +4185,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4091,10 +4203,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4112,7 +4224,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4127,10 +4239,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4161,7 +4273,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -4177,16 +4289,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -4200,14 +4312,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -4221,11 +4333,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="17"/>
@@ -4286,10 +4398,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4304,10 +4416,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4325,7 +4437,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4340,10 +4452,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4374,7 +4486,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -4390,16 +4502,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -4413,10 +4525,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -4432,11 +4544,11 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="17"/>
@@ -4451,10 +4563,10 @@
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4504,10 +4616,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4522,10 +4634,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4543,7 +4655,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4558,10 +4670,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4592,7 +4704,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -4608,16 +4720,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -4631,14 +4743,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -4652,7 +4764,7 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="22"/>
@@ -4715,10 +4827,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4733,10 +4845,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4754,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4769,10 +4881,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4803,7 +4915,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -4819,16 +4931,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -4842,14 +4954,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -4863,10 +4975,10 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="18"/>
@@ -4930,10 +5042,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4948,10 +5060,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4969,7 +5081,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4984,10 +5096,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5018,7 +5130,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -5034,19 +5146,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -5059,17 +5171,17 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -5129,10 +5241,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -5147,10 +5259,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5168,7 +5280,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5183,10 +5295,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5217,7 +5329,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -5233,16 +5345,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5256,10 +5368,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -5322,10 +5434,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -5340,10 +5452,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5361,7 +5473,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5376,10 +5488,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5410,7 +5522,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -5426,16 +5538,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5449,10 +5561,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -5515,10 +5627,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -5533,10 +5645,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5554,7 +5666,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5569,10 +5681,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5603,7 +5715,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -5619,16 +5731,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5642,10 +5754,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -5687,14 +5799,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5705,8 +5817,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="12" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1016" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -5716,51 +5829,59 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>82</v>
+      <c r="J2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -5769,11 +5890,11 @@
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -5782,11 +5903,11 @@
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -5795,11 +5916,11 @@
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -5808,40 +5929,41 @@
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>200</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5879,10 +6001,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -5897,10 +6019,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5918,7 +6040,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5933,10 +6055,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5967,7 +6089,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -5983,16 +6105,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6006,14 +6128,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -6074,10 +6196,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -6092,10 +6214,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -6113,7 +6235,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6128,10 +6250,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6162,7 +6284,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -6178,16 +6300,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6201,14 +6323,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -6269,10 +6391,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -6287,7 +6409,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>33</v>
@@ -6308,7 +6430,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6323,10 +6445,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6357,7 +6479,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -6373,16 +6495,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6396,14 +6518,14 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -6464,10 +6586,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -6482,7 +6604,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>33</v>
@@ -6503,7 +6625,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6518,10 +6640,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6552,12 +6674,12 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -6570,19 +6692,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -6595,15 +6717,15 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -6663,10 +6785,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -6681,7 +6803,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>33</v>
@@ -6702,7 +6824,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6717,10 +6839,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6751,12 +6873,12 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -6769,19 +6891,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -6794,15 +6916,15 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -6862,10 +6984,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -6880,7 +7002,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>33</v>
@@ -6901,7 +7023,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6916,10 +7038,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6950,12 +7072,12 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -6968,19 +7090,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -6993,15 +7115,15 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -7061,10 +7183,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -7079,7 +7201,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>33</v>
@@ -7100,7 +7222,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7115,10 +7237,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7149,12 +7271,12 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -7167,19 +7289,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -7192,15 +7314,15 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -7260,10 +7382,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -7278,7 +7400,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>35</v>
@@ -7299,7 +7421,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7314,10 +7436,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7348,12 +7470,12 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -7366,19 +7488,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -7391,17 +7513,17 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -7461,10 +7583,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -7479,7 +7601,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>35</v>
@@ -7500,7 +7622,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7515,10 +7637,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7549,7 +7671,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -7565,16 +7687,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -7588,10 +7710,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -7607,10 +7729,10 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="18"/>
@@ -7626,10 +7748,10 @@
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7679,10 +7801,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -7697,7 +7819,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>35</v>
@@ -7718,7 +7840,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7733,10 +7855,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7767,7 +7889,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -7783,16 +7905,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -7806,10 +7928,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -7825,10 +7947,10 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="18"/>
@@ -7844,10 +7966,10 @@
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7876,7 +7998,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
@@ -7900,7 +8022,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="16" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="17" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -7915,64 +8038,70 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7991,7 +8120,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8010,7 +8139,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8029,7 +8158,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -8047,8 +8176,9 @@
       <c r="O6" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -8086,10 +8216,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -8104,7 +8234,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>35</v>
@@ -8125,7 +8255,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8140,10 +8270,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8174,7 +8304,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -8190,16 +8320,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -8213,10 +8343,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -8232,10 +8362,10 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="0"/>
@@ -8251,10 +8381,10 @@
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8304,10 +8434,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -8322,7 +8452,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>35</v>
@@ -8343,7 +8473,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8358,10 +8488,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8392,7 +8522,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -8408,16 +8538,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -8431,10 +8561,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
@@ -8450,10 +8580,10 @@
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="0"/>
@@ -8469,11 +8599,1126 @@
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="0"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00DCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8504,11 +9749,11 @@
   <dimension ref="A1:AA65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U16" activeCellId="0" sqref="U16"/>
+      <selection pane="bottomRight" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8542,106 +9787,106 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -8655,7 +9900,9 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="9"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
@@ -8664,23 +9911,23 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -8694,7 +9941,9 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="W3" s="9"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -8703,14 +9952,14 @@
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -8729,7 +9978,9 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
+      <c r="V4" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="W4" s="9"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -8738,14 +9989,14 @@
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -8764,7 +10015,9 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="W5" s="9"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
@@ -8773,14 +10026,14 @@
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -8799,7 +10052,9 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
+      <c r="V6" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="W6" s="9"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
@@ -8808,21 +10063,21 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -8834,11 +10089,13 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
+      <c r="V7" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="W7" s="9"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -8847,30 +10104,33 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -8886,11 +10146,13 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
+      <c r="V9" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="W9" s="9"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -8899,11 +10161,11 @@
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8922,7 +10184,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -8934,11 +10196,11 @@
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -8957,7 +10219,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -8969,11 +10231,11 @@
     </row>
     <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -8992,7 +10254,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -9004,11 +10266,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -9039,11 +10301,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -9074,11 +10336,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -9107,10 +10369,25 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
+      <c r="A17" s="0" t="s">
+        <v>148</v>
+      </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -9129,7 +10406,9 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
+      <c r="V17" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="W17" s="9"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
@@ -9137,9 +10416,13 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
+      <c r="A18" s="0" t="s">
+        <v>149</v>
+      </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -9158,7 +10441,9 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
+      <c r="V18" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="W18" s="9"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
@@ -9166,9 +10451,13 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
+      <c r="A19" s="0" t="s">
+        <v>150</v>
+      </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -9187,7 +10476,9 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
+      <c r="V19" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="W19" s="9"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
@@ -10565,10 +11856,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -10583,10 +11874,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -10604,7 +11895,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -10619,10 +11910,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -10653,7 +11944,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -10669,16 +11960,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -10692,10 +11983,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
@@ -10758,10 +12049,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -10776,10 +12067,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -10797,7 +12088,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -10812,10 +12103,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -10846,7 +12137,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -10862,16 +12153,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -10885,11 +12176,11 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -10951,10 +12242,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -10969,10 +12260,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -10990,7 +12281,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -11005,10 +12296,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -11039,7 +12330,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -11055,16 +12346,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -11078,10 +12369,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
@@ -11144,10 +12435,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -11162,10 +12453,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -11183,7 +12474,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -11198,10 +12489,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -11232,7 +12523,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -11248,16 +12539,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -11271,10 +12562,10 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="45"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,11 +26,11 @@
     <sheet name="Speaker unavailable timeslot 4" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Speaker unavailable timeslot 5" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="Speaker conflict" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Talk mutually-exclusive-talks tag" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="Talk mutually-exclusive-talks tag 2" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="Talk mutually-exclusive-talks tags" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Talk mutually-exclusive-talks tags 2" sheetId="20" state="visible" r:id="rId21"/>
     <sheet name="Talk mutually-exclusive-talks tag 3" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="Talk mutually-exclusive-talks tag 4" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="Talk mutually-exclusive-talks tag 5" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="Talk mutually-exclusive-talks tags 4" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="Talk mutually-exclusive-talks tags 5" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="Talk prerequisite talks" sheetId="24" state="visible" r:id="rId25"/>
     <sheet name="Talk prerequisite talks 2" sheetId="25" state="visible" r:id="rId26"/>
     <sheet name="Talk prerequisite talks 3" sheetId="26" state="visible" r:id="rId27"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="200">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -632,6 +632,9 @@
   </si>
   <si>
     <t xml:space="preserve">Talk mutually-exclusive-talks tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
   </si>
   <si>
     <t xml:space="preserve">Mutually exclusive talks in non-overlapping timeslots</t>
@@ -1176,10 +1179,10 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
       <selection pane="bottomRight" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -3390,7 +3393,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3426,6 +3429,9 @@
       <c r="B2" s="21" t="s">
         <v>169</v>
       </c>
+      <c r="C2" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -3442,7 +3448,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -3751,7 +3757,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3787,6 +3793,9 @@
       <c r="B2" s="21" t="s">
         <v>169</v>
       </c>
+      <c r="C2" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -3803,7 +3812,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -3961,7 +3970,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3997,6 +4006,9 @@
       <c r="B2" s="21" t="s">
         <v>169</v>
       </c>
+      <c r="C2" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -4013,7 +4025,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4172,7 +4184,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4208,6 +4220,9 @@
       <c r="B2" s="21" t="s">
         <v>169</v>
       </c>
+      <c r="C2" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -4224,7 +4239,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4242,7 +4257,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4380,12 +4395,12 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4421,6 +4436,9 @@
       <c r="B2" s="21" t="s">
         <v>169</v>
       </c>
+      <c r="C2" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -4437,7 +4455,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4455,7 +4473,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4655,7 +4673,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4866,7 +4884,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5081,7 +5099,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5280,7 +5298,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5473,7 +5491,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5491,7 +5509,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5666,7 +5684,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6040,7 +6058,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6235,7 +6253,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6430,7 +6448,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6625,7 +6643,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6824,7 +6842,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6842,7 +6860,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7023,7 +7041,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7041,7 +7059,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7222,7 +7240,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7240,7 +7258,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7421,7 +7439,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7439,7 +7457,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7622,7 +7640,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7640,7 +7658,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7840,7 +7858,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7858,7 +7876,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8255,7 +8273,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8273,7 +8291,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8473,7 +8491,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8491,7 +8509,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8691,7 +8709,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8709,7 +8727,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8914,7 +8932,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8932,7 +8950,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -9137,7 +9155,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -9155,7 +9173,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -9356,7 +9374,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -9374,7 +9392,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -9522,7 +9540,7 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -9579,7 +9597,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -9597,7 +9615,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
     <sheet name="Speaker conflict" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="Talk mutually-exclusive-talks tags" sheetId="19" state="visible" r:id="rId20"/>
     <sheet name="Talk mutually-exclusive-talks tags 2" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="Talk mutually-exclusive-talks tag 3" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Talk mutually-exclusive-talks tags 3" sheetId="21" state="visible" r:id="rId22"/>
     <sheet name="Talk mutually-exclusive-talks tags 4" sheetId="22" state="visible" r:id="rId23"/>
     <sheet name="Talk mutually-exclusive-talks tags 5" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="Talk prerequisite talks" sheetId="24" state="visible" r:id="rId25"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="198">
   <si>
     <t xml:space="preserve">Conference name</t>
   </si>
@@ -629,12 +629,6 @@
   </si>
   <si>
     <t xml:space="preserve">Speaker has conflicting timeslots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk mutually-exclusive-talks tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
   </si>
   <si>
     <t xml:space="preserve">Mutually exclusive talks in non-overlapping timeslots</t>
@@ -3393,7 +3387,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3427,10 +3421,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3448,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -3757,7 +3748,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3791,10 +3782,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3812,7 +3800,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4004,10 +3992,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4025,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4184,7 +4169,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4218,10 +4203,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4239,7 +4221,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4257,7 +4239,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4395,12 +4377,12 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4434,10 +4416,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4455,7 +4434,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4473,7 +4452,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4616,7 +4595,7 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -4673,7 +4652,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4884,7 +4863,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5099,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5298,7 +5277,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5491,7 +5470,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5509,7 +5488,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5684,7 +5663,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6058,7 +6037,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6253,7 +6232,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6448,7 +6427,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6643,7 +6622,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6842,7 +6821,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6860,7 +6839,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7041,7 +7020,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7059,7 +7038,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7240,7 +7219,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7258,7 +7237,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7439,7 +7418,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7457,7 +7436,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7640,7 +7619,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7658,7 +7637,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7858,7 +7837,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7876,7 +7855,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8273,7 +8252,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8291,7 +8270,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8491,7 +8470,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8509,7 +8488,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8709,7 +8688,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8727,7 +8706,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8932,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8950,7 +8929,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -9155,7 +9134,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -9173,7 +9152,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -9374,7 +9353,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -9392,7 +9371,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -9597,7 +9576,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -9615,7 +9594,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">Popular talks</t>
   </si>
   <si>
-    <t xml:space="preserve">Soft penalty per 2 talks where the less popular one (has lower number of likes) is assigned a larger room than the more popular talk</t>
+    <t xml:space="preserve">Soft penalty per 2 talks where the less popular one (has lower favorite count) is assigned a larger room than the more popular talk</t>
   </si>
   <si>
     <t xml:space="preserve">Crowd control</t>
@@ -424,7 +424,7 @@
     <t xml:space="preserve">Prerequisite talks codes</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of likes</t>
+    <t xml:space="preserve">Favorite count</t>
   </si>
   <si>
     <t xml:space="preserve">Crowd control risk</t>
@@ -1172,12 +1172,12 @@
   </sheetPr>
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4595,7 +4595,7 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -9750,7 +9750,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="U1" activeCellId="0" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
+++ b/optaplanner-examples/src/test/resources/org/optaplanner/examples/conferencescheduling/solver/testConferenceSchedulingScoreRules.xlsx
@@ -184,6 +184,12 @@
     <t xml:space="preserve">Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
   </si>
   <si>
+    <t xml:space="preserve">Talk mutually-exclusive-talks tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+  </si>
+  <si>
     <t xml:space="preserve">Talk type of timeslot</t>
   </si>
   <si>
@@ -256,12 +262,6 @@
     <t xml:space="preserve">Talk prohibited room tags</t>
   </si>
   <si>
-    <t xml:space="preserve">Talk mutually-exclusive-talks tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
-  </si>
-  <si>
     <t xml:space="preserve">Talk prerequisite talks</t>
   </si>
   <si>
@@ -440,237 +440,123 @@
   </si>
   <si>
     <t xml:space="preserve">Normal talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal theme tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal content tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal talk 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy, John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with unavailable speaker Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy, Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with unavailable speaker Paul and Sarah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul, Sarah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with same speaker as normal talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RedHat talk 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RedHat theme tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RedHat content tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redhat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RedHat talk 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RedHat talk 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with Normal talk as prerequisite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with Normal talk and Normal talk 2 as prerequisites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal talk, Normal talk 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with (Talk with Normal talk as prerequisite) as a prerequisite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with 5 likes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with 10 likes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with 20 likes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with 1 crowd control risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with 2 crowd control risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with 3 crowd control risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk2 with 3 crowd control risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraint package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.optaplanner.examples.conferencescheduling.solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraint name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeslot with matching talk type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0hard/0medium/0soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeslot with non matching talk type</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Normal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> theme tag</t>
+      <t xml:space="preserve">-1hard</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Normal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> content tag</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal talk 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amy, John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk with unavailable speaker Paul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amy, Paul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk with unavailable speaker Paul and Sarah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul, Sarah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk with same speaker as normal talk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RedHat talk 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RedHat theme tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RedHat content tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redhat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RedHat talk 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RedHat talk 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk with Normal talk as prerequisite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk with Normal talk and Normal talk 2 as prerequisites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal talk, Normal talk 2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Talk with (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Talk with Normal talk as prerequisite</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">) as a prerequisite</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk with 5 likes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk with 10 likes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk with 20 likes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk with 1 crowd control risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk with 2 crowd control risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk with 3 crowd control risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk2 with 3 crowd control risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constraint package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.optaplanner.examples.conferencescheduling.solver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constraint name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timeslot with matching talk type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0hard/0soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timeslot with non matching talk type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1hard/0soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk with available room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk with unavailable room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talks in same room without overlapping timeslots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talks in same room with overlapping timeslots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talks in different rooms with overlapping timeslots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk without unavailable speaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk without unavailable two speakers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk with one or more unavailable speaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaker has no conflicting timeslots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaker has conflicting timeslots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutually exclusive talks in non-overlapping timeslots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Mutually exclusive talks in overlapping timeslots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutually exclusive talks in overlapping timeslots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2hard/0soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three Mutually exclusive talks in overlapping timeslots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3hard/0soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk scheduled after its prerequisites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk scheduled before its prerequisites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two talks with common theme and content tags on the same day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two talks with different theme and content tags on different days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two talks with only same theme tags on different days</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t xml:space="preserve">/0medium</t>
     </r>
     <r>
       <rPr>
@@ -679,7 +565,21 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">hard/</t>
+      <t xml:space="preserve">/0soft</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with available room</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0hard</t>
     </r>
     <r>
       <rPr>
@@ -687,7 +587,7 @@
         <rFont val="Calibri"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">-1</t>
+      <t xml:space="preserve">/0medium</t>
     </r>
     <r>
       <rPr>
@@ -696,23 +596,56 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">soft</t>
+      <t xml:space="preserve">/0soft</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Two talks with only same content tags on different days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two talks with same content and same theme tags on different days</t>
-  </si>
-  <si>
+    <t xml:space="preserve">Talk with unavailable room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talks in same room without overlapping timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talks in same room with overlapping timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talks in different rooms with overlapping timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk without unavailable speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk without unavailable two speakers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk with one or more unavailable speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker has no conflicting timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker has conflicting timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutually exclusive talks in non-overlapping timeslots</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0hard</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t xml:space="preserve">/0medium</t>
     </r>
     <r>
       <rPr>
@@ -721,7 +654,24 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">hard/</t>
+      <t xml:space="preserve">/-1soft</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Mutually exclusive talks in overlapping timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutually exclusive talks in overlapping timeslots</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0hard</t>
     </r>
     <r>
       <rPr>
@@ -729,7 +679,7 @@
         <rFont val="Calibri"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">-2</t>
+      <t xml:space="preserve">/-1medium</t>
     </r>
     <r>
       <rPr>
@@ -738,20 +688,26 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">soft</t>
+      <t xml:space="preserve">/-1soft</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Talks with different popularity in same room</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0hard</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t xml:space="preserve">/-2medium</t>
     </r>
     <r>
       <rPr>
@@ -760,7 +716,30 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">hard/</t>
+      <t xml:space="preserve">/-3soft</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Three Mutually exclusive talks in overlapping timeslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0hard/-3medium/-3soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk scheduled after its prerequisites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk scheduled before its prerequisites</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-2hard</t>
     </r>
     <r>
       <rPr>
@@ -768,7 +747,7 @@
         <rFont val="Calibri"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t xml:space="preserve">/0medium</t>
     </r>
     <r>
       <rPr>
@@ -777,26 +756,41 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">soft</t>
+      <t xml:space="preserve">/0soft</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Less popular talks in smaller rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One less popular talk in a bigger room than a more popular talk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two less popular talk in a bigger room than a more popular talk</t>
-  </si>
-  <si>
+    <t xml:space="preserve">Two talks with common theme and content tags on the same day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two talks with different theme and content tags on different days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two talks with only same theme tags on different days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two talks with only same content tags on different days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two talks with same content and same theme tags on different days</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0hard</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t xml:space="preserve">/0medium</t>
     </r>
     <r>
       <rPr>
@@ -805,20 +799,41 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">hard/-2soft</t>
+      <t xml:space="preserve">/-2soft</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Talks with different popularity in same room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less popular talks in smaller rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One less popular talk in a bigger room than a more popular talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two less popular talk in a bigger room than a more popular talk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Three less popular talk in a bigger room than a more popular talk</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0hard</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t xml:space="preserve">/0medium</t>
     </r>
     <r>
       <rPr>
@@ -827,7 +842,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">hard/-3soft</t>
+      <t xml:space="preserve">/-3soft</t>
     </r>
   </si>
   <si>
@@ -835,42 +850,6 @@
   </si>
   <si>
     <t xml:space="preserve">Three talks with greater than zero crowd control risk</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hard/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">soft</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Single talk with greater than zero crowd control risk</t>
@@ -890,7 +869,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -918,17 +897,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -999,7 +967,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1020,7 +988,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1029,10 +997,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1056,16 +1020,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1080,12 +1040,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1170,14 +1126,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1427,103 +1383,93 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1534,40 +1480,40 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,20 +1524,32 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1616,29 +1574,29 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="10" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="10" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="13"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -1649,14 +1607,14 @@
       <c r="A2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>45</v>
+      <c r="B2" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1667,14 +1625,14 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>161</v>
+      <c r="B3" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1685,14 +1643,14 @@
       <c r="A4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>156</v>
+      <c r="B4" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1701,13 +1659,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1716,20 +1674,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -1761,19 +1719,19 @@
       <c r="B8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1816,24 +1774,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="10" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="10" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="13"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -1844,14 +1802,14 @@
       <c r="A2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>45</v>
+      <c r="B2" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1862,14 +1820,14 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>162</v>
+      <c r="B3" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1880,14 +1838,14 @@
       <c r="A4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1896,13 +1854,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1911,20 +1869,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -1959,15 +1917,15 @@
       <c r="C8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2005,29 +1963,29 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="10" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="10" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="13"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -2038,14 +1996,14 @@
       <c r="A2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>45</v>
+      <c r="B2" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -2056,14 +2014,14 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>163</v>
+      <c r="B3" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -2074,14 +2032,14 @@
       <c r="A4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>156</v>
+      <c r="B4" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -2090,13 +2048,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -2105,20 +2063,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -2150,34 +2108,34 @@
       <c r="B8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2214,29 +2172,29 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="10" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="10" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="13"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -2247,14 +2205,14 @@
       <c r="A2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>47</v>
+      <c r="B2" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -2265,14 +2223,14 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>164</v>
+      <c r="B3" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -2283,14 +2241,14 @@
       <c r="A4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>156</v>
+      <c r="B4" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -2299,13 +2257,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -2314,20 +2272,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -2359,16 +2317,16 @@
       <c r="C8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2406,29 +2364,29 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="10" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="10" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="13"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -2439,14 +2397,14 @@
       <c r="A2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>47</v>
+      <c r="B2" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -2457,14 +2415,14 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>165</v>
+      <c r="B3" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -2475,14 +2433,14 @@
       <c r="A4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>156</v>
+      <c r="B4" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -2491,13 +2449,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -2506,20 +2464,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -2548,20 +2506,20 @@
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2599,29 +2557,29 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="10" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="10" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="13"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -2632,14 +2590,14 @@
       <c r="A2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>47</v>
+      <c r="B2" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -2650,14 +2608,14 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>166</v>
+      <c r="B3" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -2668,14 +2626,14 @@
       <c r="A4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -2684,13 +2642,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -2699,20 +2657,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -2741,19 +2699,19 @@
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2791,29 +2749,29 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="10" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="10" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="13"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -2824,14 +2782,14 @@
       <c r="A2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>47</v>
+      <c r="B2" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -2842,14 +2800,14 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>166</v>
+      <c r="B3" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -2860,14 +2818,14 @@
       <c r="A4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -2876,13 +2834,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -2891,20 +2849,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -2933,19 +2891,19 @@
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2979,33 +2937,33 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="10" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="10" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="13"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -3016,14 +2974,14 @@
       <c r="A2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>47</v>
+      <c r="B2" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -3034,14 +2992,14 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>167</v>
+      <c r="B3" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -3052,14 +3010,14 @@
       <c r="A4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>156</v>
+      <c r="B4" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -3068,13 +3026,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -3083,20 +3041,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -3125,22 +3083,22 @@
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="0"/>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3178,29 +3136,29 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="10" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="10" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="13"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -3211,14 +3169,14 @@
       <c r="A2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>49</v>
+      <c r="B2" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -3229,14 +3187,14 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>168</v>
+      <c r="B3" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -3247,14 +3205,14 @@
       <c r="A4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -3263,13 +3221,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -3278,20 +3236,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -3320,37 +3278,37 @@
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3387,29 +3345,29 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="10" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="10" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="13"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -3420,14 +3378,14 @@
       <c r="A2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>63</v>
+      <c r="B2" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -3438,14 +3396,14 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>169</v>
+      <c r="B3" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -3456,14 +3414,14 @@
       <c r="A4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>156</v>
+      <c r="B4" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -3472,13 +3430,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -3487,20 +3445,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -3529,21 +3487,21 @@
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3748,29 +3706,29 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="10" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="10" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="13"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -3781,14 +3739,14 @@
       <c r="A2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>63</v>
+      <c r="B2" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -3799,14 +3757,14 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>170</v>
+      <c r="B3" s="13" t="s">
+        <v>172</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -3817,14 +3775,14 @@
       <c r="A4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>156</v>
+      <c r="B4" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -3833,13 +3791,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -3848,20 +3806,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r=